--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$134</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,818 +27,820 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="267">
-  <si>
-    <t xml:space="preserve">lang_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">descr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is_active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-email-content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for authorization content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-email-subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for authorization subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-sms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for authorization SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ida-auth-otp-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Email Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ida-auth-otp-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ida-auth-otp-sms-template</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="269">
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>is_active</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>auth-email-content</t>
+  </si>
+  <si>
+    <t>Template for authorization content</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>auth-email-subject</t>
+  </si>
+  <si>
+    <t>Template for authorization subject</t>
+  </si>
+  <si>
+    <t>auth-sms</t>
+  </si>
+  <si>
+    <t>Template for authorization SMS</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>Template for Email Content</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for Email Subject</t>
+  </si>
+  <si>
+    <t>ida-auth-otp-sms-template</t>
   </si>
   <si>
     <t xml:space="preserve">Template for OTP in SMS </t>
   </si>
   <si>
-    <t xml:space="preserve">RPR_DUP_UIN_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for duplicate UIN Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_DUP_UIN_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for duplicate UIN SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_TEC_ISSUE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Technical Issue Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_TEC_ISSUE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Technical Issue SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_GEN_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN generation Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_GEN_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN generation SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_UPD_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for update details Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_UPD_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for update Details SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewReg-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for new registration Email Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewReg-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for new registration Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NewReg-sms-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for new registration SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTP-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for OTP generation Email Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTP-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for OTP generation Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OTP-sms-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for OTP SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for update registration Email Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for update registration Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update-sms-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for update registration SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email-Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Email Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Onscreen-Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Onscreen Acknowledgment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otp-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for OTP Email Content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otp-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for OTP Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">otp-sms-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMS-Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for SMS Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acknowledgement-email-subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for email subject of Acknowledgement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_CARD_TEMPLATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN card template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_DEAC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN Deactivation SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_DEAC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN Deactivation Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_REAC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN Reactivate SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UIN_REAC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for UIN Reactivate Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg-sms-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Acknowledgement Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg-email-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-otp-email-subject-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth OTP Email Subject Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-otp-email-content-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth OTP Email Content Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">auth-otp-sms-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auth OTP SMS Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lostUIN-email-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost UIN Acknowledgement Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lostUIN-sms-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateUIN-email-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Updtae UIN Acknowledgement Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">updateUIN-sms-notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cancel-appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Template for Cancel Appointment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_LOST_UIN_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost UIN Notification SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_LOST_UIN_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost UIN Notification Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_MASKED_UIN_CARD_TEMPLATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masked UIN card template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Success EMAIL Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Download of e-UIN Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Download of e-UIN Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Download of e-UIN SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Locking of Auth Types Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Locking of Auth Types Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Locking of Auth Types SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Unlocking of Auth Types Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Unlocking of Auth Types Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Successful Unlocking of Auth Types SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Success Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Success Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Success Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Failure Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Failure Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_AUTH_HIST_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authentication History Request Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download e-UIN Failure Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download e-UIN Failure Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_DOW_UIN_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Download e-UIN Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Locking of Auth Types Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Locking of Auth Types Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_LOCK_AUTH_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Locking of Auth Types SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Failure Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Failure Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_RPR_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprint Request Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Unlocking of Auth Types Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Unlocking of Auth Types Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UNLOCK_AUTH_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Failure in Unlocking of Auth Types SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Failure Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Failure Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_GEN_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Generation Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Failure Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Failure Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_VIN_REV_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID Revocation Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Placed Successfully Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Placed Successfully Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Placed Successfully SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Failed Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Failed Email Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_UIN_UPDATE_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UIN Update Request Failed SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_LPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_LPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RUPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident Update Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RUPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident Update Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_PPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-print Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_PPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-print Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_APV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_APV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_DPV_SUC_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De-activate Packet Validation Success Email</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_DPV_SUC_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De-activate Packet Validation Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_UPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_LPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lost Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_PPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Re-print Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_RUPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resident Update Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_APV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activate Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RPR_DPV_SUC_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">De-activate Packet Validation Success Email Sub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Success EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Success EMAIL Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_STATUS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Status Check SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_STATUS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Status Check EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_STATUS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Status Check EMAIL Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_CANCEL_SUCCESS_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Request Cancel Success SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_CANCEL_SUCCESS_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Request Cancel Success EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_CANCEL_SUCCESS_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Request Cancel Success EMAIL Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_FAILURE_SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Failure SMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_FAILURE_EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Failure EMAIL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RS_CRE_REQ_FAILURE_EMAIL_SUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credential Issuance Failure EMAIL Subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg-ack-template-part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg-preview-template-part</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Registration Preview Template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reg-dashboard-template</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dashboard Template</t>
+    <t>RPR_DUP_UIN_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for duplicate UIN Email</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_SMS</t>
+  </si>
+  <si>
+    <t>Template for duplicate UIN SMS</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for Technical Issue Email</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_SMS</t>
+  </si>
+  <si>
+    <t>Template for Technical Issue SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for UIN generation Email</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_SMS</t>
+  </si>
+  <si>
+    <t>Template for UIN generation SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for update details Email</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_SMS</t>
+  </si>
+  <si>
+    <t>Template for update Details SMS</t>
+  </si>
+  <si>
+    <t>NewReg-email-content-template</t>
+  </si>
+  <si>
+    <t>Template for new registration Email Content</t>
+  </si>
+  <si>
+    <t>NewReg-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for new registration Email Subject</t>
+  </si>
+  <si>
+    <t>NewReg-sms-template</t>
+  </si>
+  <si>
+    <t>Template for new registration SMS</t>
+  </si>
+  <si>
+    <t>OTP-email-content-template</t>
+  </si>
+  <si>
+    <t>Template for OTP generation Email Content</t>
+  </si>
+  <si>
+    <t>OTP-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for OTP generation Email Subject</t>
+  </si>
+  <si>
+    <t>OTP-sms-template</t>
+  </si>
+  <si>
+    <t>Template for OTP SMS</t>
+  </si>
+  <si>
+    <t>Update-email-content-template</t>
+  </si>
+  <si>
+    <t>Template for update registration Email Content</t>
+  </si>
+  <si>
+    <t>Update-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for update registration Email Subject</t>
+  </si>
+  <si>
+    <t>Update-sms-template</t>
+  </si>
+  <si>
+    <t>Template for update registration SMS</t>
+  </si>
+  <si>
+    <t>Email-Acknowledgement</t>
+  </si>
+  <si>
+    <t>Template for Email Acknowledgement</t>
+  </si>
+  <si>
+    <t>Onscreen-Acknowledgement</t>
+  </si>
+  <si>
+    <t>Template for Onscreen Acknowledgment</t>
+  </si>
+  <si>
+    <t>otp-email-content-template</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Content</t>
+  </si>
+  <si>
+    <t>otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Subject</t>
+  </si>
+  <si>
+    <t>otp-sms-template</t>
+  </si>
+  <si>
+    <t>SMS-Acknowledgement</t>
+  </si>
+  <si>
+    <t>Template for SMS Acknowledgement</t>
+  </si>
+  <si>
+    <t>Acknowledgement-email-subject</t>
+  </si>
+  <si>
+    <t>Template for email subject of Acknowledgement</t>
+  </si>
+  <si>
+    <t>RPR_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>UIN card template</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_SMS</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for UIN Deactivation Email</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_SMS</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate SMS</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL</t>
+  </si>
+  <si>
+    <t>Template for UIN Reactivate Email</t>
+  </si>
+  <si>
+    <t>reg-sms-notification</t>
+  </si>
+  <si>
+    <t>Registration Acknowledgement Template</t>
+  </si>
+  <si>
+    <t>reg-email-notification</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>Consent</t>
+  </si>
+  <si>
+    <t>auth-otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>Auth OTP Email Subject Template</t>
+  </si>
+  <si>
+    <t>auth-otp-email-content-template</t>
+  </si>
+  <si>
+    <t>Auth OTP Email Content Template</t>
+  </si>
+  <si>
+    <t>auth-otp-sms-template</t>
+  </si>
+  <si>
+    <t>Auth OTP SMS Template</t>
+  </si>
+  <si>
+    <t>lostUIN-email-notification</t>
+  </si>
+  <si>
+    <t>Lost UIN Acknowledgement Template</t>
+  </si>
+  <si>
+    <t>lostUIN-sms-notification</t>
+  </si>
+  <si>
+    <t>updateUIN-email-notification</t>
+  </si>
+  <si>
+    <t>Updtae UIN Acknowledgement Template</t>
+  </si>
+  <si>
+    <t>updateUIN-sms-notification</t>
+  </si>
+  <si>
+    <t>cancel-appointment</t>
+  </si>
+  <si>
+    <t>Template for Cancel Appointment</t>
+  </si>
+  <si>
+    <t>RPR_LOST_UIN_SMS</t>
+  </si>
+  <si>
+    <t>Lost UIN Notification SMS</t>
+  </si>
+  <si>
+    <t>RPR_LOST_UIN_EMAIL</t>
+  </si>
+  <si>
+    <t>Lost UIN Notification Email</t>
+  </si>
+  <si>
+    <t>RPR_MASKED_UIN_CARD_TEMPLATE</t>
+  </si>
+  <si>
+    <t>Masked UIN card template</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Authentication History Request Success Email</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Authentication History Request Success SMS</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Authentication History Request Success EMAIL Subject</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Successful Download of e-UIN Email</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Successful Download of e-UIN Email Subject</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Successful Download of e-UIN SMS</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Successful Locking of Auth Types Email</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Successful Locking of Auth Types Email Subject</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Successful Locking of Auth Types SMS</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Successful Unlocking of Auth Types Email</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Successful Unlocking of Auth Types Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Successful Unlocking of Auth Types SMS</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>VID Generation Success Email</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>VID Generation Success Email Subject</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>VID Generation Success SMS</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>VID Revocation Success Email</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>VID Revocation Success Email Subject</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>VID Revocation Success SMS</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Reprint Request Success Email</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Reprint Request Success Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Reprint Request Success SMS</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Authentication History Request Failure Email</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Authentication History Request Failure Email Subject</t>
+  </si>
+  <si>
+    <t>RS_AUTH_HIST_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Authentication History Request Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Download e-UIN Failure Email</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Download e-UIN Failure Email Subject</t>
+  </si>
+  <si>
+    <t>RS_DOW_UIN_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Download e-UIN Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Failure in Locking of Auth Types Email</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Failure in Locking of Auth Types Email Subject</t>
+  </si>
+  <si>
+    <t>RS_LOCK_AUTH_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Failure in Locking of Auth Types SMS</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Reprint Request Failure Email</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Reprint Request Failure Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UIN_RPR_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Reprint Request Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Failure in Unlocking of Auth Types Email</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Failure in Unlocking of Auth Types Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UNLOCK_AUTH_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Failure in Unlocking of Auth Types SMS</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>VID Generation Failure Email</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>VID Generation Failure Email Subject</t>
+  </si>
+  <si>
+    <t>RS_VIN_GEN_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>VID Generation Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>VID Revocation Failure Email</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>VID Revocation Failure Email Subject</t>
+  </si>
+  <si>
+    <t>RS_VIN_REV_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>VID Revocation Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully Email</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>UIN Update Request Placed Successfully SMS</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed Email</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed Email Subject</t>
+  </si>
+  <si>
+    <t>RS_UIN_UPDATE_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>UIN Update Request Failed SMS</t>
+  </si>
+  <si>
+    <t>RPR_RPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Registration Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_RPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Registration Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_UPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Update Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_UPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Update Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_LPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Lost Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_LPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Lost Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_RUPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Resident Update Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_RUPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Resident Update Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_PPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Re-print Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_PPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Re-print Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_APV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>Activate Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_APV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>Activate Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_DPV_SUC_EMAIL</t>
+  </si>
+  <si>
+    <t>De-activate Packet Validation Success Email</t>
+  </si>
+  <si>
+    <t>RPR_DPV_SUC_SMS</t>
+  </si>
+  <si>
+    <t>De-activate Packet Validation Success SMS</t>
+  </si>
+  <si>
+    <t>RPR_RPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Registration Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_UPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Update Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_LPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Lost Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_PPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Re-print Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_RUPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Resident Update Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_APV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Activate Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RPR_DPV_SUC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>De-activate Packet Validation Success Email Sub</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Credential Issuance Success SMS</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Credential Issuance Success EMAIL</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Credential Issuance Success EMAIL Subject</t>
+  </si>
+  <si>
+    <t>RS_CRE_STATUS_SMS</t>
+  </si>
+  <si>
+    <t>Credential Issuance Status Check SMS</t>
+  </si>
+  <si>
+    <t>RS_CRE_STATUS_EMAIL</t>
+  </si>
+  <si>
+    <t>Credential Issuance Status Check EMAIL</t>
+  </si>
+  <si>
+    <t>RS_CRE_STATUS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Credential Issuance Status Check EMAIL Subject</t>
+  </si>
+  <si>
+    <t>RS_CRE_CANCEL_SUCCESS_SMS</t>
+  </si>
+  <si>
+    <t>Credential Request Cancel Success SMS</t>
+  </si>
+  <si>
+    <t>RS_CRE_CANCEL_SUCCESS_EMAIL</t>
+  </si>
+  <si>
+    <t>Credential Request Cancel Success EMAIL</t>
+  </si>
+  <si>
+    <t>RS_CRE_CANCEL_SUCCESS_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Credential Request Cancel Success EMAIL Subject</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_FAILURE_SMS</t>
+  </si>
+  <si>
+    <t>Credential Issuance Failure SMS</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_FAILURE_EMAIL</t>
+  </si>
+  <si>
+    <t>Credential Issuance Failure EMAIL</t>
+  </si>
+  <si>
+    <t>RS_CRE_REQ_FAILURE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>Credential Issuance Failure EMAIL Subject</t>
+  </si>
+  <si>
+    <t>reg-ack-template-part</t>
+  </si>
+  <si>
+    <t>reg-preview-template-part</t>
+  </si>
+  <si>
+    <t>Registration Preview Template</t>
+  </si>
+  <si>
+    <t>reg-dashboard-template</t>
+  </si>
+  <si>
+    <t>Dashboard Template</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>ara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -843,25 +849,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -874,100 +864,336 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:D134"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A135" activeCellId="0" sqref="A135"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B395" sqref="B395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -981,7 +1207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -995,7 +1221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1009,7 +1235,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1249,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1051,7 +1277,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1065,7 +1291,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1079,7 +1305,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1093,7 +1319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1107,7 +1333,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1121,7 +1347,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1135,7 +1361,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1375,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1163,7 +1389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1205,7 +1431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1275,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1317,7 +1543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -1331,7 +1557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1345,7 +1571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1585,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -1373,7 +1599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1387,7 +1613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1401,7 +1627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1641,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1429,7 +1655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -1443,7 +1669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1457,7 +1683,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1471,7 +1697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -1485,7 +1711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1499,7 +1725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -1513,7 +1739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
@@ -1527,7 +1753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
@@ -1541,7 +1767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
@@ -1555,7 +1781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -1569,7 +1795,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1823,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1611,7 +1837,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1625,7 +1851,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -1639,7 +1865,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -1653,7 +1879,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -1667,7 +1893,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1681,7 +1907,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -1695,7 +1921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -1709,7 +1935,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -1723,7 +1949,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -1737,7 +1963,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -1751,7 +1977,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -1765,7 +1991,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -1779,7 +2005,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -1793,7 +2019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -1807,7 +2033,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -1821,7 +2047,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -1835,7 +2061,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -1849,7 +2075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +2089,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -1877,7 +2103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -1891,7 +2117,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -1905,7 +2131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -1919,7 +2145,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -1933,7 +2159,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +2173,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -1961,7 +2187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>4</v>
       </c>
@@ -1975,7 +2201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
@@ -1989,7 +2215,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>4</v>
       </c>
@@ -2003,7 +2229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
@@ -2017,7 +2243,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
@@ -2031,7 +2257,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
@@ -2045,7 +2271,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2285,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
@@ -2073,7 +2299,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
@@ -2087,7 +2313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2327,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +2341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>4</v>
       </c>
@@ -2129,7 +2355,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
@@ -2143,7 +2369,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
@@ -2157,7 +2383,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
@@ -2171,7 +2397,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -2185,7 +2411,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -2199,7 +2425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -2227,7 +2453,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -2241,7 +2467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -2255,7 +2481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -2269,7 +2495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -2283,7 +2509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -2311,7 +2537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
@@ -2325,7 +2551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
@@ -2339,7 +2565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
@@ -2353,7 +2579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
@@ -2367,7 +2593,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
@@ -2381,7 +2607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2621,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>4</v>
       </c>
@@ -2409,7 +2635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
@@ -2423,7 +2649,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
@@ -2437,7 +2663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
@@ -2451,7 +2677,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
@@ -2465,7 +2691,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
@@ -2479,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -2493,7 +2719,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>4</v>
       </c>
@@ -2507,7 +2733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
@@ -2521,7 +2747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>4</v>
       </c>
@@ -2535,7 +2761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
@@ -2549,7 +2775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
         <v>4</v>
       </c>
@@ -2563,7 +2789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>4</v>
       </c>
@@ -2577,7 +2803,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>4</v>
       </c>
@@ -2591,7 +2817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
@@ -2605,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -2619,7 +2845,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
@@ -2633,7 +2859,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
         <v>4</v>
       </c>
@@ -2647,7 +2873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
@@ -2661,7 +2887,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2901,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>4</v>
       </c>
@@ -2689,7 +2915,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>4</v>
       </c>
@@ -2703,7 +2929,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
@@ -2717,7 +2943,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
@@ -2731,7 +2957,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>4</v>
       </c>
@@ -2745,7 +2971,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
         <v>4</v>
       </c>
@@ -2759,7 +2985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>4</v>
       </c>
@@ -2773,7 +2999,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +3013,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
@@ -2801,7 +3027,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
         <v>4</v>
       </c>
@@ -2815,7 +3041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>4</v>
       </c>
@@ -2829,7 +3055,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -2843,15 +3069,3733 @@
         <v>7</v>
       </c>
     </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D200" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D208" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D211" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D212" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D224" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D269" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D270" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A274" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D274" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A276" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A277" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D277" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A279" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D279" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D280" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A282" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D283" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D284" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D285" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A286" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D286" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D287" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D288" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D289" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D290" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D291" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A292" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D292" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D294" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A295" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D295" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D296" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D297" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D298" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A303" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A304" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A306" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A308" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A309" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A310" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D310" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A312" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D312" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A313" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A314" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A316" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A318" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A320" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A322" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A323" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D324" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A325" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D326" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A327" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A328" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A330" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A332" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A333" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A334" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A336" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A337" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A338" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A340" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A342" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A344" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A345" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A347" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A348" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A350" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A352" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A353" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A354" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A356" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A358" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A359" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A360" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A362" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A363" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A365" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A367" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A368" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A369" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A371" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A373" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A375" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A376" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A377" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A379" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A381" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A383" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A385" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A386" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A388" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A390" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A392" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A394" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A395" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A396" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A398" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A400" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D134"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$134</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$400</definedName>
   </definedNames>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="295">
   <si>
     <t>lang_code</t>
   </si>
@@ -80,9 +80,6 @@
     <t>ida-auth-otp-sms-template</t>
   </si>
   <si>
-    <t xml:space="preserve">Template for OTP in SMS </t>
-  </si>
-  <si>
     <t>RPR_DUP_UIN_EMAIL</t>
   </si>
   <si>
@@ -197,18 +194,6 @@
     <t>Template for Onscreen Acknowledgment</t>
   </si>
   <si>
-    <t>otp-email-content-template</t>
-  </si>
-  <si>
-    <t>Template for OTP Email Content</t>
-  </si>
-  <si>
-    <t>otp-email-subject-template</t>
-  </si>
-  <si>
-    <t>Template for OTP Email Subject</t>
-  </si>
-  <si>
     <t>otp-sms-template</t>
   </si>
   <si>
@@ -272,36 +257,21 @@
     <t>auth-otp-email-subject-template</t>
   </si>
   <si>
-    <t>Auth OTP Email Subject Template</t>
-  </si>
-  <si>
     <t>auth-otp-email-content-template</t>
   </si>
   <si>
-    <t>Auth OTP Email Content Template</t>
-  </si>
-  <si>
     <t>auth-otp-sms-template</t>
   </si>
   <si>
-    <t>Auth OTP SMS Template</t>
-  </si>
-  <si>
     <t>lostUIN-email-notification</t>
   </si>
   <si>
-    <t>Lost UIN Acknowledgement Template</t>
-  </si>
-  <si>
     <t>lostUIN-sms-notification</t>
   </si>
   <si>
     <t>updateUIN-email-notification</t>
   </si>
   <si>
-    <t>Updtae UIN Acknowledgement Template</t>
-  </si>
-  <si>
     <t>updateUIN-sms-notification</t>
   </si>
   <si>
@@ -356,9 +326,6 @@
     <t>RS_DOW_UIN_SUCCESS_EMAIL_SUB</t>
   </si>
   <si>
-    <t>Successful Download of e-UIN Email Subject</t>
-  </si>
-  <si>
     <t>RS_DOW_UIN_SUCCESS_SMS</t>
   </si>
   <si>
@@ -821,19 +788,130 @@
     <t>reg-preview-template-part</t>
   </si>
   <si>
-    <t>Registration Preview Template</t>
-  </si>
-  <si>
     <t>reg-dashboard-template</t>
   </si>
   <si>
-    <t>Dashboard Template</t>
-  </si>
-  <si>
     <t>fra</t>
   </si>
   <si>
     <t>ara</t>
+  </si>
+  <si>
+    <t>partner-reg-sub-template</t>
+  </si>
+  <si>
+    <t>partner-status-sub-template</t>
+  </si>
+  <si>
+    <t>partner-apikey-status-sub-template</t>
+  </si>
+  <si>
+    <t>partner-reg-content-template</t>
+  </si>
+  <si>
+    <t>partner-status-content-template</t>
+  </si>
+  <si>
+    <t>apikey-status-content-template</t>
+  </si>
+  <si>
+    <t>Registration Consent</t>
+  </si>
+  <si>
+    <t>RPR_PAUSED_FOR_ADD_INFO_EMAIL</t>
+  </si>
+  <si>
+    <t>RPR_PAUSED_FOR_ADD_INFO_SMS</t>
+  </si>
+  <si>
+    <t>RPR_DUP_UIN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_TEC_ISSUE_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_REAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_DEAC_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_GEN_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_UIN_UPD_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>RPR_PAUSED_FOR_ADD_INFO_EMAIL_SUB</t>
+  </si>
+  <si>
+    <t>auth otp service for sending otp</t>
+  </si>
+  <si>
+    <t>auth otp email service subject</t>
+  </si>
+  <si>
+    <t>Template for OTP in SMS</t>
+  </si>
+  <si>
+    <t>Download e-UIN Status Email Subject</t>
+  </si>
+  <si>
+    <t>Acknowledgement generated after registration</t>
+  </si>
+  <si>
+    <t>Preview generated after registration</t>
+  </si>
+  <si>
+    <t>Dashboard of Registration Client</t>
+  </si>
+  <si>
+    <t>partner registration notify subject template</t>
+  </si>
+  <si>
+    <t>partner status notify subject template</t>
+  </si>
+  <si>
+    <t>partner apikey status notify subject template</t>
+  </si>
+  <si>
+    <t>partner registration notify content template</t>
+  </si>
+  <si>
+    <t>partner status notify content template</t>
+  </si>
+  <si>
+    <t>partner apikey status notify content template</t>
+  </si>
+  <si>
+    <t>Consent in Registration Client</t>
+  </si>
+  <si>
+    <t>Email template requesting for additional info</t>
+  </si>
+  <si>
+    <t>Registration Failed because you have already Registered</t>
+  </si>
+  <si>
+    <t>Re-Register because there was a Technical Issue</t>
+  </si>
+  <si>
+    <t>Uin is activated successfully</t>
+  </si>
+  <si>
+    <t>Uin is deactivated</t>
+  </si>
+  <si>
+    <t>UIN Generated</t>
+  </si>
+  <si>
+    <t>UIN Details Updated</t>
+  </si>
+  <si>
+    <t>Requesting the additional details for progressing on the application of UIN</t>
+  </si>
+  <si>
+    <t>OTP Send Service</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B395" sqref="B395"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C438" sqref="C438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1211,10 +1289,10 @@
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1225,10 +1303,10 @@
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1239,10 +1317,10 @@
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1253,11 +1331,11 @@
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1267,11 +1345,11 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>7</v>
@@ -1281,11 +1359,11 @@
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>7</v>
@@ -1295,11 +1373,11 @@
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>7</v>
@@ -1309,11 +1387,11 @@
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>7</v>
@@ -1323,11 +1401,11 @@
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>7</v>
@@ -1337,11 +1415,11 @@
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>7</v>
@@ -1351,11 +1429,11 @@
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>27</v>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>7</v>
@@ -1365,11 +1443,11 @@
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>29</v>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>7</v>
@@ -1379,11 +1457,11 @@
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>31</v>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>7</v>
@@ -1393,11 +1471,11 @@
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>33</v>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
@@ -1407,11 +1485,11 @@
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>35</v>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
@@ -1421,11 +1499,11 @@
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>7</v>
@@ -1435,11 +1513,11 @@
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>39</v>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>7</v>
@@ -1449,11 +1527,11 @@
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>41</v>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>7</v>
@@ -1463,11 +1541,11 @@
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>43</v>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>7</v>
@@ -1477,11 +1555,11 @@
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>45</v>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>7</v>
@@ -1491,11 +1569,11 @@
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>47</v>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>7</v>
@@ -1505,11 +1583,11 @@
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>49</v>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>7</v>
@@ -1519,11 +1597,11 @@
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>51</v>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>7</v>
@@ -1533,11 +1611,11 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>53</v>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>7</v>
@@ -1547,11 +1625,11 @@
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>55</v>
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>7</v>
@@ -1561,11 +1639,11 @@
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>57</v>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>7</v>
@@ -1575,11 +1653,11 @@
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>59</v>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>7</v>
@@ -1589,11 +1667,11 @@
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>45</v>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>7</v>
@@ -1603,11 +1681,11 @@
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
+      <c r="B30" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>7</v>
@@ -1617,11 +1695,11 @@
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>64</v>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>7</v>
@@ -1631,11 +1709,11 @@
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>66</v>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>7</v>
@@ -1645,11 +1723,11 @@
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>68</v>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>272</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>7</v>
@@ -1659,11 +1737,11 @@
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>70</v>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>273</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>7</v>
@@ -1673,11 +1751,11 @@
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>72</v>
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>273</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>7</v>
@@ -1687,11 +1765,11 @@
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>74</v>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>7</v>
@@ -1701,11 +1779,11 @@
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>7</v>
@@ -1715,11 +1793,11 @@
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>76</v>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>274</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
@@ -1729,11 +1807,11 @@
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>79</v>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>7</v>
@@ -1743,11 +1821,11 @@
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>81</v>
+      <c r="C40" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>7</v>
@@ -1757,11 +1835,11 @@
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>83</v>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>7</v>
@@ -1771,11 +1849,11 @@
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>85</v>
+      <c r="B42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C42" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>7</v>
@@ -1785,11 +1863,11 @@
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>87</v>
+      <c r="B43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" t="s">
+        <v>71</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>7</v>
@@ -1799,11 +1877,11 @@
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>87</v>
+      <c r="B44" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" t="s">
+        <v>83</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>7</v>
@@ -1813,11 +1891,11 @@
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>90</v>
+      <c r="B45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>7</v>
@@ -1827,11 +1905,11 @@
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>90</v>
+      <c r="B46" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" t="s">
+        <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>7</v>
@@ -1841,11 +1919,11 @@
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>93</v>
+      <c r="B47" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>7</v>
@@ -1855,11 +1933,11 @@
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>95</v>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>7</v>
@@ -1869,11 +1947,11 @@
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>97</v>
+      <c r="B49" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>7</v>
@@ -1883,11 +1961,11 @@
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>99</v>
+      <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
@@ -1897,11 +1975,11 @@
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>101</v>
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>7</v>
@@ -1911,11 +1989,11 @@
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>103</v>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>275</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>7</v>
@@ -1925,11 +2003,11 @@
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>105</v>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>100</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>7</v>
@@ -1939,11 +2017,11 @@
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>107</v>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="C54" t="s">
+        <v>102</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>7</v>
@@ -1953,11 +2031,11 @@
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>109</v>
+      <c r="B55" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>7</v>
@@ -1967,11 +2045,11 @@
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>111</v>
+      <c r="B56" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" t="s">
+        <v>106</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>7</v>
@@ -1981,11 +2059,11 @@
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>113</v>
+      <c r="B57" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" t="s">
+        <v>108</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>7</v>
@@ -1995,11 +2073,11 @@
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>115</v>
+      <c r="B58" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" t="s">
+        <v>110</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>7</v>
@@ -2009,11 +2087,11 @@
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>117</v>
+      <c r="B59" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" t="s">
+        <v>112</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>7</v>
@@ -2023,11 +2101,11 @@
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>119</v>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>114</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>7</v>
@@ -2037,11 +2115,11 @@
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>121</v>
+      <c r="B61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>7</v>
@@ -2051,11 +2129,11 @@
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>123</v>
+      <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" t="s">
+        <v>118</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>7</v>
@@ -2065,11 +2143,11 @@
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>125</v>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
+        <v>120</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>7</v>
@@ -2079,11 +2157,11 @@
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>127</v>
+      <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" t="s">
+        <v>122</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>7</v>
@@ -2093,11 +2171,11 @@
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>129</v>
+      <c r="B65" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" t="s">
+        <v>124</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>7</v>
@@ -2107,11 +2185,11 @@
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>131</v>
+      <c r="B66" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" t="s">
+        <v>126</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>7</v>
@@ -2121,11 +2199,11 @@
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>133</v>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" t="s">
+        <v>128</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>7</v>
@@ -2135,11 +2213,11 @@
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>135</v>
+      <c r="B68" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" t="s">
+        <v>130</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>7</v>
@@ -2149,11 +2227,11 @@
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>137</v>
+      <c r="B69" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>7</v>
@@ -2163,11 +2241,11 @@
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>139</v>
+      <c r="B70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s">
+        <v>134</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>7</v>
@@ -2177,11 +2255,11 @@
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B71" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>141</v>
+      <c r="B71" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" t="s">
+        <v>136</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>7</v>
@@ -2191,11 +2269,11 @@
       <c r="A72" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>143</v>
+      <c r="B72" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" t="s">
+        <v>138</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>7</v>
@@ -2205,11 +2283,11 @@
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>145</v>
+      <c r="B73" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" t="s">
+        <v>140</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>7</v>
@@ -2219,11 +2297,11 @@
       <c r="A74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>147</v>
+      <c r="B74" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" t="s">
+        <v>142</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
@@ -2233,11 +2311,11 @@
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>149</v>
+      <c r="B75" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" t="s">
+        <v>144</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>7</v>
@@ -2247,11 +2325,11 @@
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>151</v>
+      <c r="B76" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" t="s">
+        <v>146</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>7</v>
@@ -2261,11 +2339,11 @@
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>153</v>
+      <c r="B77" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" t="s">
+        <v>148</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>7</v>
@@ -2275,11 +2353,11 @@
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>155</v>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>7</v>
@@ -2289,11 +2367,11 @@
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>157</v>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" t="s">
+        <v>152</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
@@ -2303,11 +2381,11 @@
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>159</v>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" t="s">
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
@@ -2317,11 +2395,11 @@
       <c r="A81" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>161</v>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" t="s">
+        <v>156</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>7</v>
@@ -2331,11 +2409,11 @@
       <c r="A82" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>163</v>
+      <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>158</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
@@ -2345,11 +2423,11 @@
       <c r="A83" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>165</v>
+      <c r="B83" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" t="s">
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>7</v>
@@ -2359,11 +2437,11 @@
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>167</v>
+      <c r="B84" t="s">
+        <v>161</v>
+      </c>
+      <c r="C84" t="s">
+        <v>162</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
@@ -2373,11 +2451,11 @@
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>169</v>
+      <c r="B85" t="s">
+        <v>163</v>
+      </c>
+      <c r="C85" t="s">
+        <v>164</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>7</v>
@@ -2387,11 +2465,11 @@
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>171</v>
+      <c r="B86" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" t="s">
+        <v>166</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>7</v>
@@ -2401,11 +2479,11 @@
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>173</v>
+      <c r="B87" t="s">
+        <v>167</v>
+      </c>
+      <c r="C87" t="s">
+        <v>168</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>7</v>
@@ -2415,11 +2493,11 @@
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>175</v>
+      <c r="B88" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" t="s">
+        <v>170</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>7</v>
@@ -2429,11 +2507,11 @@
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>177</v>
+      <c r="B89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" t="s">
+        <v>172</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>7</v>
@@ -2443,11 +2521,11 @@
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>179</v>
+      <c r="B90" t="s">
+        <v>173</v>
+      </c>
+      <c r="C90" t="s">
+        <v>174</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>7</v>
@@ -2457,11 +2535,11 @@
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C91" s="4" t="s">
-        <v>181</v>
+      <c r="B91" t="s">
+        <v>175</v>
+      </c>
+      <c r="C91" t="s">
+        <v>176</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>7</v>
@@ -2471,11 +2549,11 @@
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>183</v>
+      <c r="B92" t="s">
+        <v>177</v>
+      </c>
+      <c r="C92" t="s">
+        <v>178</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>7</v>
@@ -2485,11 +2563,11 @@
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>185</v>
+      <c r="B93" t="s">
+        <v>179</v>
+      </c>
+      <c r="C93" t="s">
+        <v>180</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>7</v>
@@ -2499,11 +2577,11 @@
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>187</v>
+      <c r="B94" t="s">
+        <v>181</v>
+      </c>
+      <c r="C94" t="s">
+        <v>182</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>7</v>
@@ -2513,11 +2591,11 @@
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>189</v>
+      <c r="B95" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" t="s">
+        <v>184</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>7</v>
@@ -2527,11 +2605,11 @@
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>191</v>
+      <c r="B96" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" t="s">
+        <v>186</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>7</v>
@@ -2541,11 +2619,11 @@
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>193</v>
+      <c r="B97" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" t="s">
+        <v>188</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>7</v>
@@ -2555,11 +2633,11 @@
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>195</v>
+      <c r="B98" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" t="s">
+        <v>190</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>7</v>
@@ -2569,11 +2647,11 @@
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>197</v>
+      <c r="B99" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" t="s">
+        <v>192</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>7</v>
@@ -2583,11 +2661,11 @@
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>199</v>
+      <c r="B100" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" t="s">
+        <v>194</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>7</v>
@@ -2597,11 +2675,11 @@
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>201</v>
+      <c r="B101" t="s">
+        <v>195</v>
+      </c>
+      <c r="C101" t="s">
+        <v>196</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>7</v>
@@ -2611,11 +2689,11 @@
       <c r="A102" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>203</v>
+      <c r="B102" t="s">
+        <v>197</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>7</v>
@@ -2625,11 +2703,11 @@
       <c r="A103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>205</v>
+      <c r="B103" t="s">
+        <v>199</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>7</v>
@@ -2639,11 +2717,11 @@
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>207</v>
+      <c r="B104" t="s">
+        <v>201</v>
+      </c>
+      <c r="C104" t="s">
+        <v>202</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>7</v>
@@ -2653,11 +2731,11 @@
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>209</v>
+      <c r="B105" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105" t="s">
+        <v>204</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>7</v>
@@ -2667,11 +2745,11 @@
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>211</v>
+      <c r="B106" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" t="s">
+        <v>206</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>7</v>
@@ -2681,11 +2759,11 @@
       <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>213</v>
+      <c r="B107" t="s">
+        <v>207</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>7</v>
@@ -2695,11 +2773,11 @@
       <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>215</v>
+      <c r="B108" t="s">
+        <v>209</v>
+      </c>
+      <c r="C108" t="s">
+        <v>210</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>7</v>
@@ -2709,11 +2787,11 @@
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>217</v>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>212</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>7</v>
@@ -2723,11 +2801,11 @@
       <c r="A110" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>219</v>
+      <c r="B110" t="s">
+        <v>213</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>7</v>
@@ -2737,11 +2815,11 @@
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B111" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>221</v>
+      <c r="B111" t="s">
+        <v>215</v>
+      </c>
+      <c r="C111" t="s">
+        <v>216</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>7</v>
@@ -2751,11 +2829,11 @@
       <c r="A112" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B112" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>223</v>
+      <c r="B112" t="s">
+        <v>217</v>
+      </c>
+      <c r="C112" t="s">
+        <v>218</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>7</v>
@@ -2765,11 +2843,11 @@
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>225</v>
+      <c r="B113" t="s">
+        <v>219</v>
+      </c>
+      <c r="C113" t="s">
+        <v>220</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>7</v>
@@ -2779,11 +2857,11 @@
       <c r="A114" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>227</v>
+      <c r="B114" t="s">
+        <v>221</v>
+      </c>
+      <c r="C114" t="s">
+        <v>222</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>7</v>
@@ -2793,11 +2871,11 @@
       <c r="A115" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>229</v>
+      <c r="B115" t="s">
+        <v>223</v>
+      </c>
+      <c r="C115" t="s">
+        <v>224</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>7</v>
@@ -2807,11 +2885,11 @@
       <c r="A116" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>231</v>
+      <c r="B116" t="s">
+        <v>225</v>
+      </c>
+      <c r="C116" t="s">
+        <v>226</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>7</v>
@@ -2821,11 +2899,11 @@
       <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>233</v>
+      <c r="B117" t="s">
+        <v>227</v>
+      </c>
+      <c r="C117" t="s">
+        <v>228</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>7</v>
@@ -2835,11 +2913,11 @@
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>235</v>
+      <c r="B118" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" t="s">
+        <v>230</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>7</v>
@@ -2849,11 +2927,11 @@
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>237</v>
+      <c r="B119" t="s">
+        <v>231</v>
+      </c>
+      <c r="C119" t="s">
+        <v>232</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>7</v>
@@ -2863,11 +2941,11 @@
       <c r="A120" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>239</v>
+      <c r="B120" t="s">
+        <v>233</v>
+      </c>
+      <c r="C120" t="s">
+        <v>234</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>7</v>
@@ -2877,11 +2955,11 @@
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B121" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>241</v>
+      <c r="B121" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" t="s">
+        <v>236</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>7</v>
@@ -2891,11 +2969,11 @@
       <c r="A122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>243</v>
+      <c r="B122" t="s">
+        <v>237</v>
+      </c>
+      <c r="C122" t="s">
+        <v>238</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>7</v>
@@ -2905,11 +2983,11 @@
       <c r="A123" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B123" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>245</v>
+      <c r="B123" t="s">
+        <v>239</v>
+      </c>
+      <c r="C123" t="s">
+        <v>240</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>7</v>
@@ -2919,11 +2997,11 @@
       <c r="A124" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>247</v>
+      <c r="B124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124" t="s">
+        <v>242</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>7</v>
@@ -2933,11 +3011,11 @@
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B125" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>249</v>
+      <c r="B125" t="s">
+        <v>243</v>
+      </c>
+      <c r="C125" t="s">
+        <v>244</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>7</v>
@@ -2947,11 +3025,11 @@
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B126" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>251</v>
+      <c r="B126" t="s">
+        <v>245</v>
+      </c>
+      <c r="C126" t="s">
+        <v>246</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>7</v>
@@ -2961,11 +3039,11 @@
       <c r="A127" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>253</v>
+      <c r="B127" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" t="s">
+        <v>248</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>7</v>
@@ -2975,11 +3053,11 @@
       <c r="A128" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B128" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>255</v>
+      <c r="B128" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" t="s">
+        <v>250</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>7</v>
@@ -2989,11 +3067,11 @@
       <c r="A129" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B129" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>257</v>
+      <c r="B129" t="s">
+        <v>251</v>
+      </c>
+      <c r="C129" t="s">
+        <v>276</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>7</v>
@@ -3003,11 +3081,11 @@
       <c r="A130" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>259</v>
+      <c r="B130" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" t="s">
+        <v>277</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>7</v>
@@ -3017,11 +3095,11 @@
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>261</v>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+      <c r="C131" t="s">
+        <v>278</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>7</v>
@@ -3031,11 +3109,11 @@
       <c r="A132" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>76</v>
+      <c r="B132" t="s">
+        <v>256</v>
+      </c>
+      <c r="C132" t="s">
+        <v>279</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>7</v>
@@ -3045,11 +3123,11 @@
       <c r="A133" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B133" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>264</v>
+      <c r="B133" t="s">
+        <v>257</v>
+      </c>
+      <c r="C133" t="s">
+        <v>280</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>7</v>
@@ -3059,11 +3137,11 @@
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B134" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>266</v>
+      <c r="B134" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" t="s">
+        <v>281</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>7</v>
@@ -3071,13 +3149,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B135" t="s">
+        <v>259</v>
+      </c>
+      <c r="C135" t="s">
+        <v>282</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>7</v>
@@ -3085,13 +3163,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B136" t="s">
+        <v>260</v>
+      </c>
+      <c r="C136" t="s">
+        <v>283</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>7</v>
@@ -3099,13 +3177,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="B137" t="s">
+        <v>261</v>
+      </c>
+      <c r="C137" t="s">
+        <v>284</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>7</v>
@@ -3113,13 +3191,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
+      </c>
+      <c r="B138" t="s">
+        <v>262</v>
+      </c>
+      <c r="C138" t="s">
+        <v>285</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>7</v>
@@ -3127,13 +3205,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>15</v>
+        <v>4</v>
+      </c>
+      <c r="B139" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" t="s">
+        <v>286</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>7</v>
@@ -3141,13 +3219,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="B140" t="s">
+        <v>264</v>
+      </c>
+      <c r="C140" t="s">
+        <v>286</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>7</v>
@@ -3155,13 +3233,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>19</v>
+        <v>4</v>
+      </c>
+      <c r="B141" t="s">
+        <v>265</v>
+      </c>
+      <c r="C141" t="s">
+        <v>287</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>7</v>
@@ -3169,13 +3247,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" t="s">
+        <v>288</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>7</v>
@@ -3183,13 +3261,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B143" t="s">
         <v>267</v>
       </c>
-      <c r="B143" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>23</v>
+      <c r="C143" t="s">
+        <v>289</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>7</v>
@@ -3197,13 +3275,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>268</v>
+      </c>
+      <c r="C144" t="s">
+        <v>290</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>7</v>
@@ -3211,13 +3289,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="4" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="B145" t="s">
+        <v>269</v>
+      </c>
+      <c r="C145" t="s">
+        <v>291</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>7</v>
@@ -3225,13 +3303,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C146" s="4" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>270</v>
+      </c>
+      <c r="C146" t="s">
+        <v>292</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>7</v>
@@ -3239,13 +3317,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="B147" t="s">
+        <v>271</v>
+      </c>
+      <c r="C147" t="s">
+        <v>293</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>7</v>
@@ -3253,13 +3331,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C148" s="4" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>55</v>
+      </c>
+      <c r="C148" t="s">
+        <v>294</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>7</v>
@@ -3267,13 +3345,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>35</v>
+        <v>254</v>
+      </c>
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
       </c>
       <c r="D149" s="1" t="s">
         <v>7</v>
@@ -3281,13 +3359,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>37</v>
+        <v>254</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>9</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>7</v>
@@ -3295,13 +3373,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>39</v>
+        <v>254</v>
+      </c>
+      <c r="B151" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" t="s">
+        <v>11</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>7</v>
@@ -3309,13 +3387,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>41</v>
+        <v>254</v>
+      </c>
+      <c r="B152" t="s">
+        <v>17</v>
+      </c>
+      <c r="C152" t="s">
+        <v>18</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>7</v>
@@ -3323,13 +3401,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>43</v>
+        <v>254</v>
+      </c>
+      <c r="B153" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" t="s">
+        <v>20</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>7</v>
@@ -3337,13 +3415,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>45</v>
+        <v>254</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>7</v>
@@ -3351,13 +3429,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>47</v>
+        <v>254</v>
+      </c>
+      <c r="B155" t="s">
+        <v>23</v>
+      </c>
+      <c r="C155" t="s">
+        <v>24</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>7</v>
@@ -3365,13 +3443,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>49</v>
+        <v>254</v>
+      </c>
+      <c r="B156" t="s">
+        <v>25</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>7</v>
@@ -3379,13 +3457,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>51</v>
+        <v>254</v>
+      </c>
+      <c r="B157" t="s">
+        <v>27</v>
+      </c>
+      <c r="C157" t="s">
+        <v>28</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>7</v>
@@ -3393,13 +3471,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>53</v>
+        <v>254</v>
+      </c>
+      <c r="B158" t="s">
+        <v>29</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>7</v>
@@ -3407,13 +3485,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>55</v>
+        <v>254</v>
+      </c>
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+      <c r="C159" t="s">
+        <v>32</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>7</v>
@@ -3421,13 +3499,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>57</v>
+        <v>254</v>
+      </c>
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>34</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>7</v>
@@ -3435,13 +3513,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>59</v>
+        <v>254</v>
+      </c>
+      <c r="B161" t="s">
+        <v>35</v>
+      </c>
+      <c r="C161" t="s">
+        <v>36</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>7</v>
@@ -3449,13 +3527,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>45</v>
+        <v>254</v>
+      </c>
+      <c r="B162" t="s">
+        <v>37</v>
+      </c>
+      <c r="C162" t="s">
+        <v>38</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>7</v>
@@ -3463,13 +3541,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C163" s="4" t="s">
-        <v>62</v>
+        <v>254</v>
+      </c>
+      <c r="B163" t="s">
+        <v>39</v>
+      </c>
+      <c r="C163" t="s">
+        <v>40</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>7</v>
@@ -3477,13 +3555,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>64</v>
+        <v>254</v>
+      </c>
+      <c r="B164" t="s">
+        <v>41</v>
+      </c>
+      <c r="C164" t="s">
+        <v>42</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>7</v>
@@ -3491,13 +3569,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>66</v>
+        <v>254</v>
+      </c>
+      <c r="B165" t="s">
+        <v>43</v>
+      </c>
+      <c r="C165" t="s">
+        <v>44</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>7</v>
@@ -3505,13 +3583,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>68</v>
+        <v>254</v>
+      </c>
+      <c r="B166" t="s">
+        <v>45</v>
+      </c>
+      <c r="C166" t="s">
+        <v>46</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>7</v>
@@ -3519,13 +3597,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>70</v>
+        <v>254</v>
+      </c>
+      <c r="B167" t="s">
+        <v>47</v>
+      </c>
+      <c r="C167" t="s">
+        <v>48</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>7</v>
@@ -3533,13 +3611,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>72</v>
+        <v>254</v>
+      </c>
+      <c r="B168" t="s">
+        <v>49</v>
+      </c>
+      <c r="C168" t="s">
+        <v>50</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>7</v>
@@ -3547,13 +3625,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>74</v>
+        <v>254</v>
+      </c>
+      <c r="B169" t="s">
+        <v>51</v>
+      </c>
+      <c r="C169" t="s">
+        <v>52</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>7</v>
@@ -3561,13 +3639,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>76</v>
+        <v>254</v>
+      </c>
+      <c r="B170" t="s">
+        <v>53</v>
+      </c>
+      <c r="C170" t="s">
+        <v>54</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>7</v>
@@ -3575,13 +3653,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>76</v>
+        <v>254</v>
+      </c>
+      <c r="B171" t="s">
+        <v>56</v>
+      </c>
+      <c r="C171" t="s">
+        <v>57</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>7</v>
@@ -3589,13 +3667,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>79</v>
+        <v>254</v>
+      </c>
+      <c r="B172" t="s">
+        <v>58</v>
+      </c>
+      <c r="C172" t="s">
+        <v>59</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>7</v>
@@ -3603,13 +3681,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>81</v>
+        <v>254</v>
+      </c>
+      <c r="B173" t="s">
+        <v>60</v>
+      </c>
+      <c r="C173" t="s">
+        <v>61</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>7</v>
@@ -3617,13 +3695,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>83</v>
+        <v>254</v>
+      </c>
+      <c r="B174" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>7</v>
@@ -3631,13 +3709,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>85</v>
+        <v>254</v>
+      </c>
+      <c r="B175" t="s">
+        <v>64</v>
+      </c>
+      <c r="C175" t="s">
+        <v>65</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>7</v>
@@ -3645,13 +3723,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C176" s="4" t="s">
-        <v>87</v>
+        <v>254</v>
+      </c>
+      <c r="B176" t="s">
+        <v>66</v>
+      </c>
+      <c r="C176" t="s">
+        <v>67</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>7</v>
@@ -3659,13 +3737,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C177" s="4" t="s">
-        <v>87</v>
+        <v>254</v>
+      </c>
+      <c r="B177" t="s">
+        <v>68</v>
+      </c>
+      <c r="C177" t="s">
+        <v>69</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>7</v>
@@ -3673,13 +3751,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C178" s="4" t="s">
-        <v>90</v>
+        <v>254</v>
+      </c>
+      <c r="B178" t="s">
+        <v>70</v>
+      </c>
+      <c r="C178" t="s">
+        <v>71</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>7</v>
@@ -3687,13 +3765,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B179" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C179" s="4" t="s">
-        <v>90</v>
+        <v>254</v>
+      </c>
+      <c r="B179" t="s">
+        <v>72</v>
+      </c>
+      <c r="C179" t="s">
+        <v>71</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>7</v>
@@ -3701,13 +3779,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C180" s="4" t="s">
-        <v>93</v>
+        <v>254</v>
+      </c>
+      <c r="B180" t="s">
+        <v>77</v>
+      </c>
+      <c r="C180" t="s">
+        <v>272</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>7</v>
@@ -3715,13 +3793,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B181" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>95</v>
+        <v>254</v>
+      </c>
+      <c r="B181" t="s">
+        <v>75</v>
+      </c>
+      <c r="C181" t="s">
+        <v>273</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>7</v>
@@ -3729,13 +3807,13 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>97</v>
+        <v>254</v>
+      </c>
+      <c r="B182" t="s">
+        <v>76</v>
+      </c>
+      <c r="C182" t="s">
+        <v>273</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>7</v>
@@ -3743,13 +3821,13 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C183" s="4" t="s">
-        <v>99</v>
+        <v>254</v>
+      </c>
+      <c r="B183" t="s">
+        <v>12</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>7</v>
@@ -3757,13 +3835,13 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C184" s="4" t="s">
-        <v>101</v>
+        <v>254</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+      <c r="C184" t="s">
+        <v>15</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>7</v>
@@ -3771,13 +3849,13 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B185" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C185" s="4" t="s">
-        <v>103</v>
+        <v>254</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>274</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>7</v>
@@ -3785,13 +3863,13 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C186" s="4" t="s">
-        <v>105</v>
+        <v>254</v>
+      </c>
+      <c r="B186" t="s">
+        <v>73</v>
+      </c>
+      <c r="C186" t="s">
+        <v>74</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>7</v>
@@ -3799,13 +3877,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B187" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C187" s="4" t="s">
-        <v>107</v>
+        <v>254</v>
+      </c>
+      <c r="B187" t="s">
+        <v>80</v>
+      </c>
+      <c r="C187" t="s">
+        <v>71</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>7</v>
@@ -3813,13 +3891,13 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C188" s="4" t="s">
-        <v>109</v>
+        <v>254</v>
+      </c>
+      <c r="B188" t="s">
+        <v>81</v>
+      </c>
+      <c r="C188" t="s">
+        <v>71</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>7</v>
@@ -3827,13 +3905,13 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B189" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C189" s="4" t="s">
-        <v>111</v>
+        <v>254</v>
+      </c>
+      <c r="B189" t="s">
+        <v>78</v>
+      </c>
+      <c r="C189" t="s">
+        <v>71</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>7</v>
@@ -3841,13 +3919,13 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C190" s="4" t="s">
-        <v>113</v>
+        <v>254</v>
+      </c>
+      <c r="B190" t="s">
+        <v>79</v>
+      </c>
+      <c r="C190" t="s">
+        <v>71</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>7</v>
@@ -3855,13 +3933,13 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B191" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C191" s="4" t="s">
-        <v>115</v>
+        <v>254</v>
+      </c>
+      <c r="B191" t="s">
+        <v>82</v>
+      </c>
+      <c r="C191" t="s">
+        <v>83</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>7</v>
@@ -3869,13 +3947,13 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C192" s="4" t="s">
-        <v>117</v>
+        <v>254</v>
+      </c>
+      <c r="B192" t="s">
+        <v>84</v>
+      </c>
+      <c r="C192" t="s">
+        <v>85</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>7</v>
@@ -3883,13 +3961,13 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B193" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C193" s="4" t="s">
-        <v>119</v>
+        <v>254</v>
+      </c>
+      <c r="B193" t="s">
+        <v>86</v>
+      </c>
+      <c r="C193" t="s">
+        <v>87</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>7</v>
@@ -3897,13 +3975,13 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C194" s="4" t="s">
-        <v>121</v>
+        <v>254</v>
+      </c>
+      <c r="B194" t="s">
+        <v>88</v>
+      </c>
+      <c r="C194" t="s">
+        <v>89</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>7</v>
@@ -3911,13 +3989,13 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B195" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>123</v>
+        <v>254</v>
+      </c>
+      <c r="B195" t="s">
+        <v>90</v>
+      </c>
+      <c r="C195" t="s">
+        <v>91</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>7</v>
@@ -3925,13 +4003,13 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C196" s="4" t="s">
-        <v>125</v>
+        <v>254</v>
+      </c>
+      <c r="B196" t="s">
+        <v>92</v>
+      </c>
+      <c r="C196" t="s">
+        <v>93</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>7</v>
@@ -3939,13 +4017,13 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B197" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C197" s="4" t="s">
-        <v>127</v>
+        <v>254</v>
+      </c>
+      <c r="B197" t="s">
+        <v>94</v>
+      </c>
+      <c r="C197" t="s">
+        <v>95</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>7</v>
@@ -3953,13 +4031,13 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C198" s="4" t="s">
-        <v>129</v>
+        <v>254</v>
+      </c>
+      <c r="B198" t="s">
+        <v>96</v>
+      </c>
+      <c r="C198" t="s">
+        <v>97</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>7</v>
@@ -3967,13 +4045,13 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B199" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C199" s="4" t="s">
-        <v>131</v>
+        <v>254</v>
+      </c>
+      <c r="B199" t="s">
+        <v>98</v>
+      </c>
+      <c r="C199" t="s">
+        <v>275</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>7</v>
@@ -3981,13 +4059,13 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C200" s="4" t="s">
-        <v>133</v>
+        <v>254</v>
+      </c>
+      <c r="B200" t="s">
+        <v>99</v>
+      </c>
+      <c r="C200" t="s">
+        <v>100</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>7</v>
@@ -3995,13 +4073,13 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B201" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C201" s="4" t="s">
-        <v>135</v>
+        <v>254</v>
+      </c>
+      <c r="B201" t="s">
+        <v>101</v>
+      </c>
+      <c r="C201" t="s">
+        <v>102</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>7</v>
@@ -4009,13 +4087,13 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>137</v>
+        <v>254</v>
+      </c>
+      <c r="B202" t="s">
+        <v>103</v>
+      </c>
+      <c r="C202" t="s">
+        <v>104</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>7</v>
@@ -4023,13 +4101,13 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B203" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C203" s="4" t="s">
-        <v>139</v>
+        <v>254</v>
+      </c>
+      <c r="B203" t="s">
+        <v>105</v>
+      </c>
+      <c r="C203" t="s">
+        <v>106</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>7</v>
@@ -4037,13 +4115,13 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B204" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>141</v>
+        <v>254</v>
+      </c>
+      <c r="B204" t="s">
+        <v>107</v>
+      </c>
+      <c r="C204" t="s">
+        <v>108</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>7</v>
@@ -4051,13 +4129,13 @@
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>143</v>
+        <v>254</v>
+      </c>
+      <c r="B205" t="s">
+        <v>109</v>
+      </c>
+      <c r="C205" t="s">
+        <v>110</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>7</v>
@@ -4065,13 +4143,13 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B206" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C206" s="4" t="s">
-        <v>145</v>
+        <v>254</v>
+      </c>
+      <c r="B206" t="s">
+        <v>111</v>
+      </c>
+      <c r="C206" t="s">
+        <v>112</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>7</v>
@@ -4079,13 +4157,13 @@
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B207" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C207" s="4" t="s">
-        <v>147</v>
+        <v>254</v>
+      </c>
+      <c r="B207" t="s">
+        <v>113</v>
+      </c>
+      <c r="C207" t="s">
+        <v>114</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>7</v>
@@ -4093,13 +4171,13 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B208" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C208" s="4" t="s">
-        <v>149</v>
+        <v>254</v>
+      </c>
+      <c r="B208" t="s">
+        <v>115</v>
+      </c>
+      <c r="C208" t="s">
+        <v>116</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>7</v>
@@ -4107,13 +4185,13 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B209" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C209" s="4" t="s">
-        <v>151</v>
+        <v>254</v>
+      </c>
+      <c r="B209" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" t="s">
+        <v>118</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>7</v>
@@ -4121,13 +4199,13 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C210" s="4" t="s">
-        <v>153</v>
+        <v>254</v>
+      </c>
+      <c r="B210" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" t="s">
+        <v>120</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>7</v>
@@ -4135,13 +4213,13 @@
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B211" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C211" s="4" t="s">
-        <v>155</v>
+        <v>254</v>
+      </c>
+      <c r="B211" t="s">
+        <v>121</v>
+      </c>
+      <c r="C211" t="s">
+        <v>122</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>7</v>
@@ -4149,13 +4227,13 @@
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C212" s="4" t="s">
-        <v>157</v>
+        <v>254</v>
+      </c>
+      <c r="B212" t="s">
+        <v>123</v>
+      </c>
+      <c r="C212" t="s">
+        <v>124</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>7</v>
@@ -4163,13 +4241,13 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C213" s="4" t="s">
-        <v>159</v>
+        <v>254</v>
+      </c>
+      <c r="B213" t="s">
+        <v>125</v>
+      </c>
+      <c r="C213" t="s">
+        <v>126</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>7</v>
@@ -4177,13 +4255,13 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C214" s="4" t="s">
-        <v>161</v>
+        <v>254</v>
+      </c>
+      <c r="B214" t="s">
+        <v>127</v>
+      </c>
+      <c r="C214" t="s">
+        <v>128</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>7</v>
@@ -4191,13 +4269,13 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B215" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C215" s="4" t="s">
-        <v>163</v>
+        <v>254</v>
+      </c>
+      <c r="B215" t="s">
+        <v>129</v>
+      </c>
+      <c r="C215" t="s">
+        <v>130</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>7</v>
@@ -4205,13 +4283,13 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B216" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C216" s="4" t="s">
-        <v>165</v>
+        <v>254</v>
+      </c>
+      <c r="B216" t="s">
+        <v>131</v>
+      </c>
+      <c r="C216" t="s">
+        <v>132</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>7</v>
@@ -4219,13 +4297,13 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C217" s="4" t="s">
-        <v>167</v>
+        <v>254</v>
+      </c>
+      <c r="B217" t="s">
+        <v>133</v>
+      </c>
+      <c r="C217" t="s">
+        <v>134</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>7</v>
@@ -4233,13 +4311,13 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B218" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C218" s="4" t="s">
-        <v>169</v>
+        <v>254</v>
+      </c>
+      <c r="B218" t="s">
+        <v>135</v>
+      </c>
+      <c r="C218" t="s">
+        <v>136</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>7</v>
@@ -4247,13 +4325,13 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B219" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C219" s="4" t="s">
-        <v>171</v>
+        <v>254</v>
+      </c>
+      <c r="B219" t="s">
+        <v>137</v>
+      </c>
+      <c r="C219" t="s">
+        <v>138</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>7</v>
@@ -4261,13 +4339,13 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B220" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C220" s="4" t="s">
-        <v>173</v>
+        <v>254</v>
+      </c>
+      <c r="B220" t="s">
+        <v>139</v>
+      </c>
+      <c r="C220" t="s">
+        <v>140</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>7</v>
@@ -4275,13 +4353,13 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B221" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C221" s="4" t="s">
-        <v>175</v>
+        <v>254</v>
+      </c>
+      <c r="B221" t="s">
+        <v>141</v>
+      </c>
+      <c r="C221" t="s">
+        <v>142</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>7</v>
@@ -4289,13 +4367,13 @@
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B222" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C222" s="4" t="s">
-        <v>177</v>
+        <v>254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>143</v>
+      </c>
+      <c r="C222" t="s">
+        <v>144</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>7</v>
@@ -4303,13 +4381,13 @@
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>179</v>
+        <v>254</v>
+      </c>
+      <c r="B223" t="s">
+        <v>145</v>
+      </c>
+      <c r="C223" t="s">
+        <v>146</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>7</v>
@@ -4317,13 +4395,13 @@
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B224" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C224" s="4" t="s">
-        <v>181</v>
+        <v>254</v>
+      </c>
+      <c r="B224" t="s">
+        <v>147</v>
+      </c>
+      <c r="C224" t="s">
+        <v>148</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>7</v>
@@ -4331,13 +4409,13 @@
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B225" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C225" s="4" t="s">
-        <v>183</v>
+        <v>254</v>
+      </c>
+      <c r="B225" t="s">
+        <v>149</v>
+      </c>
+      <c r="C225" t="s">
+        <v>150</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>7</v>
@@ -4345,13 +4423,13 @@
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B226" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C226" s="4" t="s">
-        <v>185</v>
+        <v>254</v>
+      </c>
+      <c r="B226" t="s">
+        <v>151</v>
+      </c>
+      <c r="C226" t="s">
+        <v>152</v>
       </c>
       <c r="D226" s="1" t="s">
         <v>7</v>
@@ -4359,13 +4437,13 @@
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>187</v>
+        <v>254</v>
+      </c>
+      <c r="B227" t="s">
+        <v>153</v>
+      </c>
+      <c r="C227" t="s">
+        <v>154</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>7</v>
@@ -4373,13 +4451,13 @@
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>189</v>
+        <v>254</v>
+      </c>
+      <c r="B228" t="s">
+        <v>155</v>
+      </c>
+      <c r="C228" t="s">
+        <v>156</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>7</v>
@@ -4387,13 +4465,13 @@
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B229" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>191</v>
+        <v>254</v>
+      </c>
+      <c r="B229" t="s">
+        <v>157</v>
+      </c>
+      <c r="C229" t="s">
+        <v>158</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>7</v>
@@ -4401,13 +4479,13 @@
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C230" s="4" t="s">
-        <v>193</v>
+        <v>254</v>
+      </c>
+      <c r="B230" t="s">
+        <v>159</v>
+      </c>
+      <c r="C230" t="s">
+        <v>160</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>7</v>
@@ -4415,13 +4493,13 @@
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B231" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C231" s="4" t="s">
-        <v>195</v>
+        <v>254</v>
+      </c>
+      <c r="B231" t="s">
+        <v>161</v>
+      </c>
+      <c r="C231" t="s">
+        <v>162</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>7</v>
@@ -4429,13 +4507,13 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C232" s="4" t="s">
-        <v>197</v>
+        <v>254</v>
+      </c>
+      <c r="B232" t="s">
+        <v>163</v>
+      </c>
+      <c r="C232" t="s">
+        <v>164</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>7</v>
@@ -4443,13 +4521,13 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B233" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C233" s="4" t="s">
-        <v>199</v>
+        <v>254</v>
+      </c>
+      <c r="B233" t="s">
+        <v>165</v>
+      </c>
+      <c r="C233" t="s">
+        <v>166</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>7</v>
@@ -4457,13 +4535,13 @@
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C234" s="4" t="s">
-        <v>201</v>
+        <v>254</v>
+      </c>
+      <c r="B234" t="s">
+        <v>167</v>
+      </c>
+      <c r="C234" t="s">
+        <v>168</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>7</v>
@@ -4471,13 +4549,13 @@
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>203</v>
+        <v>254</v>
+      </c>
+      <c r="B235" t="s">
+        <v>169</v>
+      </c>
+      <c r="C235" t="s">
+        <v>170</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>7</v>
@@ -4485,13 +4563,13 @@
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B236" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C236" s="4" t="s">
-        <v>205</v>
+        <v>254</v>
+      </c>
+      <c r="B236" t="s">
+        <v>171</v>
+      </c>
+      <c r="C236" t="s">
+        <v>172</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>7</v>
@@ -4499,13 +4577,13 @@
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B237" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C237" s="4" t="s">
-        <v>207</v>
+        <v>254</v>
+      </c>
+      <c r="B237" t="s">
+        <v>173</v>
+      </c>
+      <c r="C237" t="s">
+        <v>174</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>7</v>
@@ -4513,13 +4591,13 @@
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>209</v>
+        <v>254</v>
+      </c>
+      <c r="B238" t="s">
+        <v>175</v>
+      </c>
+      <c r="C238" t="s">
+        <v>176</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>7</v>
@@ -4527,13 +4605,13 @@
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>211</v>
+        <v>254</v>
+      </c>
+      <c r="B239" t="s">
+        <v>177</v>
+      </c>
+      <c r="C239" t="s">
+        <v>178</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>7</v>
@@ -4541,13 +4619,13 @@
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B240" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C240" s="4" t="s">
-        <v>213</v>
+        <v>254</v>
+      </c>
+      <c r="B240" t="s">
+        <v>179</v>
+      </c>
+      <c r="C240" t="s">
+        <v>180</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>7</v>
@@ -4555,13 +4633,13 @@
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>215</v>
+        <v>254</v>
+      </c>
+      <c r="B241" t="s">
+        <v>181</v>
+      </c>
+      <c r="C241" t="s">
+        <v>182</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>7</v>
@@ -4569,13 +4647,13 @@
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>217</v>
+        <v>254</v>
+      </c>
+      <c r="B242" t="s">
+        <v>183</v>
+      </c>
+      <c r="C242" t="s">
+        <v>184</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>7</v>
@@ -4583,13 +4661,13 @@
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C243" s="4" t="s">
-        <v>219</v>
+        <v>254</v>
+      </c>
+      <c r="B243" t="s">
+        <v>185</v>
+      </c>
+      <c r="C243" t="s">
+        <v>186</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>7</v>
@@ -4597,13 +4675,13 @@
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B244" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C244" s="4" t="s">
-        <v>221</v>
+        <v>254</v>
+      </c>
+      <c r="B244" t="s">
+        <v>187</v>
+      </c>
+      <c r="C244" t="s">
+        <v>188</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>7</v>
@@ -4611,13 +4689,13 @@
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B245" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C245" s="4" t="s">
-        <v>223</v>
+        <v>254</v>
+      </c>
+      <c r="B245" t="s">
+        <v>189</v>
+      </c>
+      <c r="C245" t="s">
+        <v>190</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>7</v>
@@ -4625,13 +4703,13 @@
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>225</v>
+        <v>254</v>
+      </c>
+      <c r="B246" t="s">
+        <v>191</v>
+      </c>
+      <c r="C246" t="s">
+        <v>192</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>7</v>
@@ -4639,13 +4717,13 @@
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C247" s="4" t="s">
-        <v>227</v>
+        <v>254</v>
+      </c>
+      <c r="B247" t="s">
+        <v>193</v>
+      </c>
+      <c r="C247" t="s">
+        <v>194</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>7</v>
@@ -4653,13 +4731,13 @@
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C248" s="4" t="s">
-        <v>229</v>
+        <v>254</v>
+      </c>
+      <c r="B248" t="s">
+        <v>195</v>
+      </c>
+      <c r="C248" t="s">
+        <v>196</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>7</v>
@@ -4667,13 +4745,13 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>231</v>
+        <v>254</v>
+      </c>
+      <c r="B249" t="s">
+        <v>197</v>
+      </c>
+      <c r="C249" t="s">
+        <v>198</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>7</v>
@@ -4681,13 +4759,13 @@
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C250" s="4" t="s">
-        <v>233</v>
+        <v>254</v>
+      </c>
+      <c r="B250" t="s">
+        <v>199</v>
+      </c>
+      <c r="C250" t="s">
+        <v>200</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>7</v>
@@ -4695,13 +4773,13 @@
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B251" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>235</v>
+        <v>254</v>
+      </c>
+      <c r="B251" t="s">
+        <v>201</v>
+      </c>
+      <c r="C251" t="s">
+        <v>202</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>7</v>
@@ -4709,13 +4787,13 @@
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B252" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C252" s="4" t="s">
-        <v>237</v>
+        <v>254</v>
+      </c>
+      <c r="B252" t="s">
+        <v>203</v>
+      </c>
+      <c r="C252" t="s">
+        <v>204</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>7</v>
@@ -4723,13 +4801,13 @@
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B253" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C253" s="4" t="s">
-        <v>239</v>
+        <v>254</v>
+      </c>
+      <c r="B253" t="s">
+        <v>205</v>
+      </c>
+      <c r="C253" t="s">
+        <v>206</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>7</v>
@@ -4737,13 +4815,13 @@
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
+      </c>
+      <c r="B254" t="s">
+        <v>207</v>
+      </c>
+      <c r="C254" t="s">
+        <v>208</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>7</v>
@@ -4751,13 +4829,13 @@
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C255" s="4" t="s">
-        <v>243</v>
+        <v>254</v>
+      </c>
+      <c r="B255" t="s">
+        <v>209</v>
+      </c>
+      <c r="C255" t="s">
+        <v>210</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>7</v>
@@ -4765,13 +4843,13 @@
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B256" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C256" s="4" t="s">
-        <v>245</v>
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>211</v>
+      </c>
+      <c r="C256" t="s">
+        <v>212</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>7</v>
@@ -4779,13 +4857,13 @@
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B257" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C257" s="4" t="s">
-        <v>247</v>
+        <v>254</v>
+      </c>
+      <c r="B257" t="s">
+        <v>213</v>
+      </c>
+      <c r="C257" t="s">
+        <v>214</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>7</v>
@@ -4793,13 +4871,13 @@
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B258" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C258" s="4" t="s">
-        <v>249</v>
+        <v>254</v>
+      </c>
+      <c r="B258" t="s">
+        <v>215</v>
+      </c>
+      <c r="C258" t="s">
+        <v>216</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>7</v>
@@ -4807,13 +4885,13 @@
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B259" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C259" s="4" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="B259" t="s">
+        <v>217</v>
+      </c>
+      <c r="C259" t="s">
+        <v>218</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>7</v>
@@ -4821,13 +4899,13 @@
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B260" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C260" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+      <c r="B260" t="s">
+        <v>219</v>
+      </c>
+      <c r="C260" t="s">
+        <v>220</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>7</v>
@@ -4835,13 +4913,13 @@
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B261" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C261" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
+      </c>
+      <c r="B261" t="s">
+        <v>221</v>
+      </c>
+      <c r="C261" t="s">
+        <v>222</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>7</v>
@@ -4849,13 +4927,13 @@
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B262" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C262" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="B262" t="s">
+        <v>223</v>
+      </c>
+      <c r="C262" t="s">
+        <v>224</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>7</v>
@@ -4863,13 +4941,13 @@
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="B263" t="s">
+        <v>225</v>
+      </c>
+      <c r="C263" t="s">
+        <v>226</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>7</v>
@@ -4877,13 +4955,13 @@
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B264" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C264" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
+      </c>
+      <c r="B264" t="s">
+        <v>227</v>
+      </c>
+      <c r="C264" t="s">
+        <v>228</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>7</v>
@@ -4891,13 +4969,13 @@
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B265" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C265" s="4" t="s">
-        <v>76</v>
+        <v>254</v>
+      </c>
+      <c r="B265" t="s">
+        <v>229</v>
+      </c>
+      <c r="C265" t="s">
+        <v>230</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>7</v>
@@ -4905,13 +4983,13 @@
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B266" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C266" s="4" t="s">
-        <v>264</v>
+        <v>254</v>
+      </c>
+      <c r="B266" t="s">
+        <v>231</v>
+      </c>
+      <c r="C266" t="s">
+        <v>232</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>7</v>
@@ -4919,13 +4997,13 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="B267" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="B267" t="s">
+        <v>233</v>
+      </c>
+      <c r="C267" t="s">
+        <v>234</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>7</v>
@@ -4933,13 +5011,13 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B268" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C268" s="4" t="s">
-        <v>6</v>
+        <v>254</v>
+      </c>
+      <c r="B268" t="s">
+        <v>235</v>
+      </c>
+      <c r="C268" t="s">
+        <v>236</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>7</v>
@@ -4947,13 +5025,13 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B269" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C269" s="4" t="s">
-        <v>9</v>
+        <v>254</v>
+      </c>
+      <c r="B269" t="s">
+        <v>237</v>
+      </c>
+      <c r="C269" t="s">
+        <v>238</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>7</v>
@@ -4961,13 +5039,13 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B270" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>11</v>
+        <v>254</v>
+      </c>
+      <c r="B270" t="s">
+        <v>239</v>
+      </c>
+      <c r="C270" t="s">
+        <v>240</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>7</v>
@@ -4975,13 +5053,13 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B271" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C271" s="4" t="s">
-        <v>13</v>
+        <v>254</v>
+      </c>
+      <c r="B271" t="s">
+        <v>241</v>
+      </c>
+      <c r="C271" t="s">
+        <v>242</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>7</v>
@@ -4989,13 +5067,13 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B272" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C272" s="4" t="s">
-        <v>15</v>
+        <v>254</v>
+      </c>
+      <c r="B272" t="s">
+        <v>243</v>
+      </c>
+      <c r="C272" t="s">
+        <v>244</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>7</v>
@@ -5003,13 +5081,13 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B273" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C273" s="4" t="s">
-        <v>17</v>
+        <v>254</v>
+      </c>
+      <c r="B273" t="s">
+        <v>245</v>
+      </c>
+      <c r="C273" t="s">
+        <v>246</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>7</v>
@@ -5017,13 +5095,13 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B274" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C274" s="4" t="s">
-        <v>19</v>
+        <v>254</v>
+      </c>
+      <c r="B274" t="s">
+        <v>247</v>
+      </c>
+      <c r="C274" t="s">
+        <v>248</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>7</v>
@@ -5031,13 +5109,13 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B275" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C275" s="4" t="s">
-        <v>21</v>
+        <v>254</v>
+      </c>
+      <c r="B275" t="s">
+        <v>249</v>
+      </c>
+      <c r="C275" t="s">
+        <v>250</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>7</v>
@@ -5045,13 +5123,13 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>23</v>
+        <v>254</v>
+      </c>
+      <c r="B276" t="s">
+        <v>251</v>
+      </c>
+      <c r="C276" t="s">
+        <v>276</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>7</v>
@@ -5059,13 +5137,13 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C277" s="4" t="s">
-        <v>25</v>
+        <v>254</v>
+      </c>
+      <c r="B277" t="s">
+        <v>252</v>
+      </c>
+      <c r="C277" t="s">
+        <v>277</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>7</v>
@@ -5073,13 +5151,13 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>27</v>
+        <v>254</v>
+      </c>
+      <c r="B278" t="s">
+        <v>253</v>
+      </c>
+      <c r="C278" t="s">
+        <v>278</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>7</v>
@@ -5087,13 +5165,13 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C279" s="4" t="s">
-        <v>29</v>
+        <v>254</v>
+      </c>
+      <c r="B279" t="s">
+        <v>256</v>
+      </c>
+      <c r="C279" t="s">
+        <v>279</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>7</v>
@@ -5101,13 +5179,13 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>31</v>
+        <v>254</v>
+      </c>
+      <c r="B280" t="s">
+        <v>257</v>
+      </c>
+      <c r="C280" t="s">
+        <v>280</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>7</v>
@@ -5115,13 +5193,13 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>33</v>
+        <v>254</v>
+      </c>
+      <c r="B281" t="s">
+        <v>258</v>
+      </c>
+      <c r="C281" t="s">
+        <v>281</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>7</v>
@@ -5129,13 +5207,13 @@
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B282" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C282" s="4" t="s">
-        <v>35</v>
+        <v>254</v>
+      </c>
+      <c r="B282" t="s">
+        <v>259</v>
+      </c>
+      <c r="C282" t="s">
+        <v>282</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>7</v>
@@ -5143,13 +5221,13 @@
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>37</v>
+        <v>254</v>
+      </c>
+      <c r="B283" t="s">
+        <v>260</v>
+      </c>
+      <c r="C283" t="s">
+        <v>283</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>7</v>
@@ -5157,13 +5235,13 @@
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B284" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C284" s="4" t="s">
-        <v>39</v>
+        <v>254</v>
+      </c>
+      <c r="B284" t="s">
+        <v>261</v>
+      </c>
+      <c r="C284" t="s">
+        <v>284</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>7</v>
@@ -5171,13 +5249,13 @@
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B285" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C285" s="4" t="s">
-        <v>41</v>
+        <v>254</v>
+      </c>
+      <c r="B285" t="s">
+        <v>262</v>
+      </c>
+      <c r="C285" t="s">
+        <v>285</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>7</v>
@@ -5185,13 +5263,13 @@
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B286" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C286" s="4" t="s">
-        <v>43</v>
+        <v>254</v>
+      </c>
+      <c r="B286" t="s">
+        <v>263</v>
+      </c>
+      <c r="C286" t="s">
+        <v>286</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>7</v>
@@ -5199,13 +5277,13 @@
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>45</v>
+        <v>254</v>
+      </c>
+      <c r="B287" t="s">
+        <v>264</v>
+      </c>
+      <c r="C287" t="s">
+        <v>286</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>7</v>
@@ -5213,13 +5291,13 @@
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>47</v>
+        <v>254</v>
+      </c>
+      <c r="B288" t="s">
+        <v>265</v>
+      </c>
+      <c r="C288" t="s">
+        <v>287</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>7</v>
@@ -5227,13 +5305,13 @@
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B289" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C289" s="4" t="s">
-        <v>49</v>
+        <v>254</v>
+      </c>
+      <c r="B289" t="s">
+        <v>266</v>
+      </c>
+      <c r="C289" t="s">
+        <v>288</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>7</v>
@@ -5241,13 +5319,13 @@
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B290" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C290" s="4" t="s">
-        <v>51</v>
+        <v>254</v>
+      </c>
+      <c r="B290" t="s">
+        <v>267</v>
+      </c>
+      <c r="C290" t="s">
+        <v>289</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>7</v>
@@ -5255,13 +5333,13 @@
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B291" t="s">
         <v>268</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>53</v>
+      <c r="C291" t="s">
+        <v>290</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>7</v>
@@ -5269,13 +5347,13 @@
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B292" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C292" s="4" t="s">
-        <v>55</v>
+        <v>254</v>
+      </c>
+      <c r="B292" t="s">
+        <v>269</v>
+      </c>
+      <c r="C292" t="s">
+        <v>291</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>7</v>
@@ -5283,13 +5361,13 @@
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B293" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C293" s="4" t="s">
-        <v>57</v>
+        <v>254</v>
+      </c>
+      <c r="B293" t="s">
+        <v>270</v>
+      </c>
+      <c r="C293" t="s">
+        <v>292</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>7</v>
@@ -5297,13 +5375,13 @@
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B294" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C294" s="4" t="s">
-        <v>59</v>
+        <v>254</v>
+      </c>
+      <c r="B294" t="s">
+        <v>271</v>
+      </c>
+      <c r="C294" t="s">
+        <v>293</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>7</v>
@@ -5311,13 +5389,13 @@
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B295" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C295" s="4" t="s">
-        <v>45</v>
+        <v>254</v>
+      </c>
+      <c r="B295" t="s">
+        <v>55</v>
+      </c>
+      <c r="C295" t="s">
+        <v>294</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>7</v>
@@ -5325,13 +5403,13 @@
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B296" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C296" s="4" t="s">
-        <v>62</v>
+        <v>255</v>
+      </c>
+      <c r="B296" t="s">
+        <v>5</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>7</v>
@@ -5339,13 +5417,13 @@
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B297" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C297" s="4" t="s">
-        <v>64</v>
+        <v>255</v>
+      </c>
+      <c r="B297" t="s">
+        <v>8</v>
+      </c>
+      <c r="C297" t="s">
+        <v>9</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>7</v>
@@ -5353,13 +5431,13 @@
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B298" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C298" s="4" t="s">
-        <v>66</v>
+        <v>255</v>
+      </c>
+      <c r="B298" t="s">
+        <v>10</v>
+      </c>
+      <c r="C298" t="s">
+        <v>11</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>7</v>
@@ -5367,13 +5445,13 @@
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B299" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C299" s="4" t="s">
-        <v>68</v>
+        <v>255</v>
+      </c>
+      <c r="B299" t="s">
+        <v>17</v>
+      </c>
+      <c r="C299" t="s">
+        <v>18</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>7</v>
@@ -5381,13 +5459,13 @@
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B300" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C300" s="4" t="s">
-        <v>70</v>
+        <v>255</v>
+      </c>
+      <c r="B300" t="s">
+        <v>19</v>
+      </c>
+      <c r="C300" t="s">
+        <v>20</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>7</v>
@@ -5395,13 +5473,13 @@
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B301" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C301" s="4" t="s">
-        <v>72</v>
+        <v>255</v>
+      </c>
+      <c r="B301" t="s">
+        <v>21</v>
+      </c>
+      <c r="C301" t="s">
+        <v>22</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>7</v>
@@ -5409,13 +5487,13 @@
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B302" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C302" s="4" t="s">
-        <v>74</v>
+        <v>255</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302" t="s">
+        <v>24</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>7</v>
@@ -5423,13 +5501,13 @@
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B303" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C303" s="4" t="s">
-        <v>76</v>
+        <v>255</v>
+      </c>
+      <c r="B303" t="s">
+        <v>25</v>
+      </c>
+      <c r="C303" t="s">
+        <v>26</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>7</v>
@@ -5437,13 +5515,13 @@
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C304" s="4" t="s">
-        <v>76</v>
+        <v>255</v>
+      </c>
+      <c r="B304" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" t="s">
+        <v>28</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>7</v>
@@ -5451,13 +5529,13 @@
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B305" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C305" s="4" t="s">
-        <v>79</v>
+        <v>255</v>
+      </c>
+      <c r="B305" t="s">
+        <v>29</v>
+      </c>
+      <c r="C305" t="s">
+        <v>30</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>7</v>
@@ -5465,13 +5543,13 @@
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B306" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C306" s="4" t="s">
-        <v>81</v>
+        <v>255</v>
+      </c>
+      <c r="B306" t="s">
+        <v>31</v>
+      </c>
+      <c r="C306" t="s">
+        <v>32</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>7</v>
@@ -5479,13 +5557,13 @@
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B307" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C307" s="4" t="s">
-        <v>83</v>
+        <v>255</v>
+      </c>
+      <c r="B307" t="s">
+        <v>33</v>
+      </c>
+      <c r="C307" t="s">
+        <v>34</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>7</v>
@@ -5493,13 +5571,13 @@
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B308" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C308" s="4" t="s">
-        <v>85</v>
+        <v>255</v>
+      </c>
+      <c r="B308" t="s">
+        <v>35</v>
+      </c>
+      <c r="C308" t="s">
+        <v>36</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>7</v>
@@ -5507,13 +5585,13 @@
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B309" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C309" s="4" t="s">
-        <v>87</v>
+        <v>255</v>
+      </c>
+      <c r="B309" t="s">
+        <v>37</v>
+      </c>
+      <c r="C309" t="s">
+        <v>38</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>7</v>
@@ -5521,13 +5599,13 @@
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B310" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C310" s="4" t="s">
-        <v>87</v>
+        <v>255</v>
+      </c>
+      <c r="B310" t="s">
+        <v>39</v>
+      </c>
+      <c r="C310" t="s">
+        <v>40</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>7</v>
@@ -5535,13 +5613,13 @@
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B311" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C311" s="4" t="s">
-        <v>90</v>
+        <v>255</v>
+      </c>
+      <c r="B311" t="s">
+        <v>41</v>
+      </c>
+      <c r="C311" t="s">
+        <v>42</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>7</v>
@@ -5549,13 +5627,13 @@
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C312" s="4" t="s">
-        <v>90</v>
+        <v>255</v>
+      </c>
+      <c r="B312" t="s">
+        <v>43</v>
+      </c>
+      <c r="C312" t="s">
+        <v>44</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>7</v>
@@ -5563,13 +5641,13 @@
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B313" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C313" s="4" t="s">
-        <v>93</v>
+        <v>255</v>
+      </c>
+      <c r="B313" t="s">
+        <v>45</v>
+      </c>
+      <c r="C313" t="s">
+        <v>46</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>7</v>
@@ -5577,13 +5655,13 @@
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B314" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C314" s="4" t="s">
-        <v>95</v>
+        <v>255</v>
+      </c>
+      <c r="B314" t="s">
+        <v>47</v>
+      </c>
+      <c r="C314" t="s">
+        <v>48</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>7</v>
@@ -5591,13 +5669,13 @@
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B315" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C315" s="4" t="s">
-        <v>97</v>
+        <v>255</v>
+      </c>
+      <c r="B315" t="s">
+        <v>49</v>
+      </c>
+      <c r="C315" t="s">
+        <v>50</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>7</v>
@@ -5605,13 +5683,13 @@
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B316" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C316" s="4" t="s">
-        <v>99</v>
+        <v>255</v>
+      </c>
+      <c r="B316" t="s">
+        <v>51</v>
+      </c>
+      <c r="C316" t="s">
+        <v>52</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>7</v>
@@ -5619,13 +5697,13 @@
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B317" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C317" s="4" t="s">
-        <v>101</v>
+        <v>255</v>
+      </c>
+      <c r="B317" t="s">
+        <v>53</v>
+      </c>
+      <c r="C317" t="s">
+        <v>54</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>7</v>
@@ -5633,13 +5711,13 @@
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B318" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C318" s="4" t="s">
-        <v>103</v>
+        <v>255</v>
+      </c>
+      <c r="B318" t="s">
+        <v>56</v>
+      </c>
+      <c r="C318" t="s">
+        <v>57</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>7</v>
@@ -5647,13 +5725,13 @@
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B319" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C319" s="4" t="s">
-        <v>105</v>
+        <v>255</v>
+      </c>
+      <c r="B319" t="s">
+        <v>58</v>
+      </c>
+      <c r="C319" t="s">
+        <v>59</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>7</v>
@@ -5661,13 +5739,13 @@
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B320" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C320" s="4" t="s">
-        <v>107</v>
+        <v>255</v>
+      </c>
+      <c r="B320" t="s">
+        <v>60</v>
+      </c>
+      <c r="C320" t="s">
+        <v>61</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>7</v>
@@ -5675,13 +5753,13 @@
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B321" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C321" s="4" t="s">
-        <v>109</v>
+        <v>255</v>
+      </c>
+      <c r="B321" t="s">
+        <v>62</v>
+      </c>
+      <c r="C321" t="s">
+        <v>63</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>7</v>
@@ -5689,13 +5767,13 @@
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B322" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C322" s="4" t="s">
-        <v>111</v>
+        <v>255</v>
+      </c>
+      <c r="B322" t="s">
+        <v>64</v>
+      </c>
+      <c r="C322" t="s">
+        <v>65</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>7</v>
@@ -5703,13 +5781,13 @@
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B323" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C323" s="4" t="s">
-        <v>113</v>
+        <v>255</v>
+      </c>
+      <c r="B323" t="s">
+        <v>66</v>
+      </c>
+      <c r="C323" t="s">
+        <v>67</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>7</v>
@@ -5717,13 +5795,13 @@
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B324" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C324" s="4" t="s">
-        <v>115</v>
+        <v>255</v>
+      </c>
+      <c r="B324" t="s">
+        <v>68</v>
+      </c>
+      <c r="C324" t="s">
+        <v>69</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>7</v>
@@ -5731,13 +5809,13 @@
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B325" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C325" s="4" t="s">
-        <v>117</v>
+        <v>255</v>
+      </c>
+      <c r="B325" t="s">
+        <v>70</v>
+      </c>
+      <c r="C325" t="s">
+        <v>71</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>7</v>
@@ -5745,13 +5823,13 @@
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B326" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C326" s="4" t="s">
-        <v>119</v>
+        <v>255</v>
+      </c>
+      <c r="B326" t="s">
+        <v>72</v>
+      </c>
+      <c r="C326" t="s">
+        <v>71</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>7</v>
@@ -5759,13 +5837,13 @@
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B327" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C327" s="4" t="s">
-        <v>121</v>
+        <v>255</v>
+      </c>
+      <c r="B327" t="s">
+        <v>77</v>
+      </c>
+      <c r="C327" t="s">
+        <v>272</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>7</v>
@@ -5773,13 +5851,13 @@
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B328" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C328" s="4" t="s">
-        <v>123</v>
+        <v>255</v>
+      </c>
+      <c r="B328" t="s">
+        <v>75</v>
+      </c>
+      <c r="C328" t="s">
+        <v>273</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>7</v>
@@ -5787,13 +5865,13 @@
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B329" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C329" s="4" t="s">
-        <v>125</v>
+        <v>255</v>
+      </c>
+      <c r="B329" t="s">
+        <v>76</v>
+      </c>
+      <c r="C329" t="s">
+        <v>273</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>7</v>
@@ -5801,13 +5879,13 @@
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B330" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C330" s="4" t="s">
-        <v>127</v>
+        <v>255</v>
+      </c>
+      <c r="B330" t="s">
+        <v>12</v>
+      </c>
+      <c r="C330" t="s">
+        <v>13</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>7</v>
@@ -5815,13 +5893,13 @@
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B331" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C331" s="4" t="s">
-        <v>129</v>
+        <v>255</v>
+      </c>
+      <c r="B331" t="s">
+        <v>14</v>
+      </c>
+      <c r="C331" t="s">
+        <v>15</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>7</v>
@@ -5829,13 +5907,13 @@
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C332" s="4" t="s">
-        <v>131</v>
+        <v>255</v>
+      </c>
+      <c r="B332" t="s">
+        <v>16</v>
+      </c>
+      <c r="C332" t="s">
+        <v>274</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>7</v>
@@ -5843,13 +5921,13 @@
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B333" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C333" s="4" t="s">
-        <v>133</v>
+        <v>255</v>
+      </c>
+      <c r="B333" t="s">
+        <v>73</v>
+      </c>
+      <c r="C333" t="s">
+        <v>74</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>7</v>
@@ -5857,13 +5935,13 @@
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B334" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C334" s="4" t="s">
-        <v>135</v>
+        <v>255</v>
+      </c>
+      <c r="B334" t="s">
+        <v>80</v>
+      </c>
+      <c r="C334" t="s">
+        <v>71</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>7</v>
@@ -5871,13 +5949,13 @@
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B335" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C335" s="4" t="s">
-        <v>137</v>
+        <v>255</v>
+      </c>
+      <c r="B335" t="s">
+        <v>81</v>
+      </c>
+      <c r="C335" t="s">
+        <v>71</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>7</v>
@@ -5885,13 +5963,13 @@
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B336" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>139</v>
+        <v>255</v>
+      </c>
+      <c r="B336" t="s">
+        <v>78</v>
+      </c>
+      <c r="C336" t="s">
+        <v>71</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>7</v>
@@ -5899,13 +5977,13 @@
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B337" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C337" s="4" t="s">
-        <v>141</v>
+        <v>255</v>
+      </c>
+      <c r="B337" t="s">
+        <v>79</v>
+      </c>
+      <c r="C337" t="s">
+        <v>71</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>7</v>
@@ -5913,13 +5991,13 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C338" s="4" t="s">
-        <v>143</v>
+        <v>255</v>
+      </c>
+      <c r="B338" t="s">
+        <v>82</v>
+      </c>
+      <c r="C338" t="s">
+        <v>83</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>7</v>
@@ -5927,13 +6005,13 @@
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C339" s="4" t="s">
-        <v>145</v>
+        <v>255</v>
+      </c>
+      <c r="B339" t="s">
+        <v>84</v>
+      </c>
+      <c r="C339" t="s">
+        <v>85</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>7</v>
@@ -5941,13 +6019,13 @@
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C340" s="4" t="s">
-        <v>147</v>
+        <v>255</v>
+      </c>
+      <c r="B340" t="s">
+        <v>86</v>
+      </c>
+      <c r="C340" t="s">
+        <v>87</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>7</v>
@@ -5955,13 +6033,13 @@
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C341" s="4" t="s">
-        <v>149</v>
+        <v>255</v>
+      </c>
+      <c r="B341" t="s">
+        <v>88</v>
+      </c>
+      <c r="C341" t="s">
+        <v>89</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>7</v>
@@ -5969,13 +6047,13 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C342" s="4" t="s">
-        <v>151</v>
+        <v>255</v>
+      </c>
+      <c r="B342" t="s">
+        <v>90</v>
+      </c>
+      <c r="C342" t="s">
+        <v>91</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>7</v>
@@ -5983,13 +6061,13 @@
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C343" s="4" t="s">
-        <v>153</v>
+        <v>255</v>
+      </c>
+      <c r="B343" t="s">
+        <v>92</v>
+      </c>
+      <c r="C343" t="s">
+        <v>93</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>7</v>
@@ -5997,13 +6075,13 @@
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B344" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C344" s="4" t="s">
-        <v>155</v>
+        <v>255</v>
+      </c>
+      <c r="B344" t="s">
+        <v>94</v>
+      </c>
+      <c r="C344" t="s">
+        <v>95</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>7</v>
@@ -6011,13 +6089,13 @@
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B345" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C345" s="4" t="s">
-        <v>157</v>
+        <v>255</v>
+      </c>
+      <c r="B345" t="s">
+        <v>96</v>
+      </c>
+      <c r="C345" t="s">
+        <v>97</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>7</v>
@@ -6025,13 +6103,13 @@
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>159</v>
+        <v>255</v>
+      </c>
+      <c r="B346" t="s">
+        <v>98</v>
+      </c>
+      <c r="C346" t="s">
+        <v>275</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>7</v>
@@ -6039,13 +6117,13 @@
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C347" s="4" t="s">
-        <v>161</v>
+        <v>255</v>
+      </c>
+      <c r="B347" t="s">
+        <v>99</v>
+      </c>
+      <c r="C347" t="s">
+        <v>100</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>7</v>
@@ -6053,13 +6131,13 @@
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B348" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C348" s="4" t="s">
-        <v>163</v>
+        <v>255</v>
+      </c>
+      <c r="B348" t="s">
+        <v>101</v>
+      </c>
+      <c r="C348" t="s">
+        <v>102</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>7</v>
@@ -6067,13 +6145,13 @@
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B349" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C349" s="4" t="s">
-        <v>165</v>
+        <v>255</v>
+      </c>
+      <c r="B349" t="s">
+        <v>103</v>
+      </c>
+      <c r="C349" t="s">
+        <v>104</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>7</v>
@@ -6081,13 +6159,13 @@
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C350" s="4" t="s">
-        <v>167</v>
+        <v>255</v>
+      </c>
+      <c r="B350" t="s">
+        <v>105</v>
+      </c>
+      <c r="C350" t="s">
+        <v>106</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>7</v>
@@ -6095,13 +6173,13 @@
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B351" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C351" s="4" t="s">
-        <v>169</v>
+        <v>255</v>
+      </c>
+      <c r="B351" t="s">
+        <v>107</v>
+      </c>
+      <c r="C351" t="s">
+        <v>108</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>7</v>
@@ -6109,13 +6187,13 @@
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B352" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C352" s="4" t="s">
-        <v>171</v>
+        <v>255</v>
+      </c>
+      <c r="B352" t="s">
+        <v>109</v>
+      </c>
+      <c r="C352" t="s">
+        <v>110</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>7</v>
@@ -6123,13 +6201,13 @@
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B353" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C353" s="4" t="s">
-        <v>173</v>
+        <v>255</v>
+      </c>
+      <c r="B353" t="s">
+        <v>111</v>
+      </c>
+      <c r="C353" t="s">
+        <v>112</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>7</v>
@@ -6137,13 +6215,13 @@
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C354" s="4" t="s">
-        <v>175</v>
+        <v>255</v>
+      </c>
+      <c r="B354" t="s">
+        <v>113</v>
+      </c>
+      <c r="C354" t="s">
+        <v>114</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>7</v>
@@ -6151,13 +6229,13 @@
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B355" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C355" s="4" t="s">
-        <v>177</v>
+        <v>255</v>
+      </c>
+      <c r="B355" t="s">
+        <v>115</v>
+      </c>
+      <c r="C355" t="s">
+        <v>116</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>7</v>
@@ -6165,13 +6243,13 @@
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B356" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C356" s="4" t="s">
-        <v>179</v>
+        <v>255</v>
+      </c>
+      <c r="B356" t="s">
+        <v>117</v>
+      </c>
+      <c r="C356" t="s">
+        <v>118</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>7</v>
@@ -6179,13 +6257,13 @@
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B357" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C357" s="4" t="s">
-        <v>181</v>
+        <v>255</v>
+      </c>
+      <c r="B357" t="s">
+        <v>119</v>
+      </c>
+      <c r="C357" t="s">
+        <v>120</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>7</v>
@@ -6193,13 +6271,13 @@
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B358" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C358" s="4" t="s">
-        <v>183</v>
+        <v>255</v>
+      </c>
+      <c r="B358" t="s">
+        <v>121</v>
+      </c>
+      <c r="C358" t="s">
+        <v>122</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>7</v>
@@ -6207,13 +6285,13 @@
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B359" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C359" s="4" t="s">
-        <v>185</v>
+        <v>255</v>
+      </c>
+      <c r="B359" t="s">
+        <v>123</v>
+      </c>
+      <c r="C359" t="s">
+        <v>124</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>7</v>
@@ -6221,13 +6299,13 @@
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B360" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C360" s="4" t="s">
-        <v>187</v>
+        <v>255</v>
+      </c>
+      <c r="B360" t="s">
+        <v>125</v>
+      </c>
+      <c r="C360" t="s">
+        <v>126</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>7</v>
@@ -6235,13 +6313,13 @@
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B361" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C361" s="4" t="s">
-        <v>189</v>
+        <v>255</v>
+      </c>
+      <c r="B361" t="s">
+        <v>127</v>
+      </c>
+      <c r="C361" t="s">
+        <v>128</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>7</v>
@@ -6249,13 +6327,13 @@
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B362" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C362" s="4" t="s">
-        <v>191</v>
+        <v>255</v>
+      </c>
+      <c r="B362" t="s">
+        <v>129</v>
+      </c>
+      <c r="C362" t="s">
+        <v>130</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>7</v>
@@ -6263,13 +6341,13 @@
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B363" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>193</v>
+        <v>255</v>
+      </c>
+      <c r="B363" t="s">
+        <v>131</v>
+      </c>
+      <c r="C363" t="s">
+        <v>132</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>7</v>
@@ -6277,13 +6355,13 @@
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B364" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C364" s="4" t="s">
-        <v>195</v>
+        <v>255</v>
+      </c>
+      <c r="B364" t="s">
+        <v>133</v>
+      </c>
+      <c r="C364" t="s">
+        <v>134</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>7</v>
@@ -6291,13 +6369,13 @@
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B365" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>197</v>
+        <v>255</v>
+      </c>
+      <c r="B365" t="s">
+        <v>135</v>
+      </c>
+      <c r="C365" t="s">
+        <v>136</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>7</v>
@@ -6305,13 +6383,13 @@
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>199</v>
+        <v>255</v>
+      </c>
+      <c r="B366" t="s">
+        <v>137</v>
+      </c>
+      <c r="C366" t="s">
+        <v>138</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>7</v>
@@ -6319,13 +6397,13 @@
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B367" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C367" s="4" t="s">
-        <v>201</v>
+        <v>255</v>
+      </c>
+      <c r="B367" t="s">
+        <v>139</v>
+      </c>
+      <c r="C367" t="s">
+        <v>140</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>7</v>
@@ -6333,13 +6411,13 @@
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B368" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>203</v>
+        <v>255</v>
+      </c>
+      <c r="B368" t="s">
+        <v>141</v>
+      </c>
+      <c r="C368" t="s">
+        <v>142</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>7</v>
@@ -6347,13 +6425,13 @@
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B369" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C369" s="4" t="s">
-        <v>205</v>
+        <v>255</v>
+      </c>
+      <c r="B369" t="s">
+        <v>143</v>
+      </c>
+      <c r="C369" t="s">
+        <v>144</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>7</v>
@@ -6361,13 +6439,13 @@
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B370" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C370" s="4" t="s">
-        <v>207</v>
+        <v>255</v>
+      </c>
+      <c r="B370" t="s">
+        <v>145</v>
+      </c>
+      <c r="C370" t="s">
+        <v>146</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>7</v>
@@ -6375,13 +6453,13 @@
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B371" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C371" s="4" t="s">
-        <v>209</v>
+        <v>255</v>
+      </c>
+      <c r="B371" t="s">
+        <v>147</v>
+      </c>
+      <c r="C371" t="s">
+        <v>148</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>7</v>
@@ -6389,13 +6467,13 @@
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B372" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C372" s="4" t="s">
-        <v>211</v>
+        <v>255</v>
+      </c>
+      <c r="B372" t="s">
+        <v>149</v>
+      </c>
+      <c r="C372" t="s">
+        <v>150</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>7</v>
@@ -6403,13 +6481,13 @@
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B373" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="C373" s="4" t="s">
-        <v>213</v>
+        <v>255</v>
+      </c>
+      <c r="B373" t="s">
+        <v>151</v>
+      </c>
+      <c r="C373" t="s">
+        <v>152</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>7</v>
@@ -6417,13 +6495,13 @@
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B374" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C374" s="4" t="s">
-        <v>215</v>
+        <v>255</v>
+      </c>
+      <c r="B374" t="s">
+        <v>153</v>
+      </c>
+      <c r="C374" t="s">
+        <v>154</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>7</v>
@@ -6431,13 +6509,13 @@
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B375" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C375" s="4" t="s">
-        <v>217</v>
+        <v>255</v>
+      </c>
+      <c r="B375" t="s">
+        <v>155</v>
+      </c>
+      <c r="C375" t="s">
+        <v>156</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>7</v>
@@ -6445,13 +6523,13 @@
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B376" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C376" s="4" t="s">
-        <v>219</v>
+        <v>255</v>
+      </c>
+      <c r="B376" t="s">
+        <v>157</v>
+      </c>
+      <c r="C376" t="s">
+        <v>158</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>7</v>
@@ -6459,13 +6537,13 @@
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C377" s="4" t="s">
-        <v>221</v>
+        <v>255</v>
+      </c>
+      <c r="B377" t="s">
+        <v>159</v>
+      </c>
+      <c r="C377" t="s">
+        <v>160</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>7</v>
@@ -6473,13 +6551,13 @@
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C378" s="4" t="s">
-        <v>223</v>
+        <v>255</v>
+      </c>
+      <c r="B378" t="s">
+        <v>161</v>
+      </c>
+      <c r="C378" t="s">
+        <v>162</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>7</v>
@@ -6487,13 +6565,13 @@
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C379" s="4" t="s">
-        <v>225</v>
+        <v>255</v>
+      </c>
+      <c r="B379" t="s">
+        <v>163</v>
+      </c>
+      <c r="C379" t="s">
+        <v>164</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>7</v>
@@ -6501,13 +6579,13 @@
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="C380" s="4" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="B380" t="s">
+        <v>165</v>
+      </c>
+      <c r="C380" t="s">
+        <v>166</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>7</v>
@@ -6515,13 +6593,13 @@
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="C381" s="4" t="s">
-        <v>229</v>
+        <v>255</v>
+      </c>
+      <c r="B381" t="s">
+        <v>167</v>
+      </c>
+      <c r="C381" t="s">
+        <v>168</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>7</v>
@@ -6529,13 +6607,13 @@
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B382" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C382" s="4" t="s">
-        <v>231</v>
+        <v>255</v>
+      </c>
+      <c r="B382" t="s">
+        <v>169</v>
+      </c>
+      <c r="C382" t="s">
+        <v>170</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>7</v>
@@ -6543,13 +6621,13 @@
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C383" s="4" t="s">
-        <v>233</v>
+        <v>255</v>
+      </c>
+      <c r="B383" t="s">
+        <v>171</v>
+      </c>
+      <c r="C383" t="s">
+        <v>172</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>7</v>
@@ -6557,13 +6635,13 @@
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B384" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C384" s="4" t="s">
-        <v>235</v>
+        <v>255</v>
+      </c>
+      <c r="B384" t="s">
+        <v>173</v>
+      </c>
+      <c r="C384" t="s">
+        <v>174</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>7</v>
@@ -6571,13 +6649,13 @@
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B385" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C385" s="4" t="s">
-        <v>237</v>
+        <v>255</v>
+      </c>
+      <c r="B385" t="s">
+        <v>175</v>
+      </c>
+      <c r="C385" t="s">
+        <v>176</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>7</v>
@@ -6585,13 +6663,13 @@
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B386" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="C386" s="4" t="s">
-        <v>239</v>
+        <v>255</v>
+      </c>
+      <c r="B386" t="s">
+        <v>177</v>
+      </c>
+      <c r="C386" t="s">
+        <v>178</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>7</v>
@@ -6599,13 +6677,13 @@
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B387" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C387" s="4" t="s">
-        <v>241</v>
+        <v>255</v>
+      </c>
+      <c r="B387" t="s">
+        <v>179</v>
+      </c>
+      <c r="C387" t="s">
+        <v>180</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>7</v>
@@ -6613,13 +6691,13 @@
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B388" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C388" s="4" t="s">
-        <v>243</v>
+        <v>255</v>
+      </c>
+      <c r="B388" t="s">
+        <v>181</v>
+      </c>
+      <c r="C388" t="s">
+        <v>182</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>7</v>
@@ -6627,13 +6705,13 @@
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B389" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C389" s="4" t="s">
-        <v>245</v>
+        <v>255</v>
+      </c>
+      <c r="B389" t="s">
+        <v>183</v>
+      </c>
+      <c r="C389" t="s">
+        <v>184</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>7</v>
@@ -6641,13 +6719,13 @@
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B390" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C390" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
+      </c>
+      <c r="B390" t="s">
+        <v>185</v>
+      </c>
+      <c r="C390" t="s">
+        <v>186</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>7</v>
@@ -6655,13 +6733,13 @@
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B391" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C391" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
+      </c>
+      <c r="B391" t="s">
+        <v>187</v>
+      </c>
+      <c r="C391" t="s">
+        <v>188</v>
       </c>
       <c r="D391" s="1" t="s">
         <v>7</v>
@@ -6669,13 +6747,13 @@
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B392" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C392" s="4" t="s">
-        <v>251</v>
+        <v>255</v>
+      </c>
+      <c r="B392" t="s">
+        <v>189</v>
+      </c>
+      <c r="C392" t="s">
+        <v>190</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>7</v>
@@ -6683,13 +6761,13 @@
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B393" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C393" s="4" t="s">
-        <v>253</v>
+        <v>255</v>
+      </c>
+      <c r="B393" t="s">
+        <v>191</v>
+      </c>
+      <c r="C393" t="s">
+        <v>192</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>7</v>
@@ -6697,13 +6775,13 @@
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B394" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C394" s="4" t="s">
-        <v>255</v>
+        <v>255</v>
+      </c>
+      <c r="B394" t="s">
+        <v>193</v>
+      </c>
+      <c r="C394" t="s">
+        <v>194</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>7</v>
@@ -6711,13 +6789,13 @@
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B395" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C395" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="B395" t="s">
+        <v>195</v>
+      </c>
+      <c r="C395" t="s">
+        <v>196</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>7</v>
@@ -6725,13 +6803,13 @@
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B396" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C396" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="B396" t="s">
+        <v>197</v>
+      </c>
+      <c r="C396" t="s">
+        <v>198</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>7</v>
@@ -6739,13 +6817,13 @@
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B397" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
+      </c>
+      <c r="B397" t="s">
+        <v>199</v>
+      </c>
+      <c r="C397" t="s">
+        <v>200</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>7</v>
@@ -6753,13 +6831,13 @@
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B398" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C398" s="4" t="s">
-        <v>76</v>
+        <v>255</v>
+      </c>
+      <c r="B398" t="s">
+        <v>201</v>
+      </c>
+      <c r="C398" t="s">
+        <v>202</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>7</v>
@@ -6767,13 +6845,13 @@
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="C399" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="B399" t="s">
+        <v>203</v>
+      </c>
+      <c r="C399" t="s">
+        <v>204</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>7</v>
@@ -6781,20 +6859,608 @@
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B400" t="s">
+        <v>205</v>
+      </c>
+      <c r="C400" t="s">
+        <v>206</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B401" t="s">
+        <v>207</v>
+      </c>
+      <c r="C401" t="s">
+        <v>208</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A402" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B402" t="s">
+        <v>209</v>
+      </c>
+      <c r="C402" t="s">
+        <v>210</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A403" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B403" t="s">
+        <v>211</v>
+      </c>
+      <c r="C403" t="s">
+        <v>212</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A404" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B404" t="s">
+        <v>213</v>
+      </c>
+      <c r="C404" t="s">
+        <v>214</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B405" t="s">
+        <v>215</v>
+      </c>
+      <c r="C405" t="s">
+        <v>216</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A406" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B406" t="s">
+        <v>217</v>
+      </c>
+      <c r="C406" t="s">
+        <v>218</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B407" t="s">
+        <v>219</v>
+      </c>
+      <c r="C407" t="s">
+        <v>220</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A408" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B408" t="s">
+        <v>221</v>
+      </c>
+      <c r="C408" t="s">
+        <v>222</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A409" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B409" t="s">
+        <v>223</v>
+      </c>
+      <c r="C409" t="s">
+        <v>224</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B410" t="s">
+        <v>225</v>
+      </c>
+      <c r="C410" t="s">
+        <v>226</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A411" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B411" t="s">
+        <v>227</v>
+      </c>
+      <c r="C411" t="s">
+        <v>228</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A412" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B412" t="s">
+        <v>229</v>
+      </c>
+      <c r="C412" t="s">
+        <v>230</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A413" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B413" t="s">
+        <v>231</v>
+      </c>
+      <c r="C413" t="s">
+        <v>232</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B414" t="s">
+        <v>233</v>
+      </c>
+      <c r="C414" t="s">
+        <v>234</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A415" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B415" t="s">
+        <v>235</v>
+      </c>
+      <c r="C415" t="s">
+        <v>236</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B416" t="s">
+        <v>237</v>
+      </c>
+      <c r="C416" t="s">
+        <v>238</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A417" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B417" t="s">
+        <v>239</v>
+      </c>
+      <c r="C417" t="s">
+        <v>240</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A418" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B418" t="s">
+        <v>241</v>
+      </c>
+      <c r="C418" t="s">
+        <v>242</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B419" t="s">
+        <v>243</v>
+      </c>
+      <c r="C419" t="s">
+        <v>244</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A420" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B420" t="s">
+        <v>245</v>
+      </c>
+      <c r="C420" t="s">
+        <v>246</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A421" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B421" t="s">
+        <v>247</v>
+      </c>
+      <c r="C421" t="s">
+        <v>248</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A422" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B422" t="s">
+        <v>249</v>
+      </c>
+      <c r="C422" t="s">
+        <v>250</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B423" t="s">
+        <v>251</v>
+      </c>
+      <c r="C423" t="s">
+        <v>276</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A424" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B424" t="s">
+        <v>252</v>
+      </c>
+      <c r="C424" t="s">
+        <v>277</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B425" t="s">
+        <v>253</v>
+      </c>
+      <c r="C425" t="s">
+        <v>278</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A426" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B426" t="s">
+        <v>256</v>
+      </c>
+      <c r="C426" t="s">
+        <v>279</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B427" t="s">
+        <v>257</v>
+      </c>
+      <c r="C427" t="s">
+        <v>280</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B428" t="s">
+        <v>258</v>
+      </c>
+      <c r="C428" t="s">
+        <v>281</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A429" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B429" t="s">
+        <v>259</v>
+      </c>
+      <c r="C429" t="s">
+        <v>282</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B430" t="s">
+        <v>260</v>
+      </c>
+      <c r="C430" t="s">
+        <v>283</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A431" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B431" t="s">
+        <v>261</v>
+      </c>
+      <c r="C431" t="s">
+        <v>284</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B432" t="s">
+        <v>262</v>
+      </c>
+      <c r="C432" t="s">
+        <v>285</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B433" t="s">
+        <v>263</v>
+      </c>
+      <c r="C433" t="s">
+        <v>286</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B434" t="s">
+        <v>264</v>
+      </c>
+      <c r="C434" t="s">
+        <v>286</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A435" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B435" t="s">
+        <v>265</v>
+      </c>
+      <c r="C435" t="s">
+        <v>287</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A436" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B436" t="s">
+        <v>266</v>
+      </c>
+      <c r="C436" t="s">
+        <v>288</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A437" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B437" t="s">
+        <v>267</v>
+      </c>
+      <c r="C437" t="s">
+        <v>289</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A438" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B438" t="s">
         <v>268</v>
       </c>
-      <c r="B400" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C400" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D400" s="1" t="s">
+      <c r="C438" t="s">
+        <v>290</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A439" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B439" t="s">
+        <v>269</v>
+      </c>
+      <c r="C439" t="s">
+        <v>291</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A440" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B440" t="s">
+        <v>270</v>
+      </c>
+      <c r="C440" t="s">
+        <v>292</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A441" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B441" t="s">
+        <v>271</v>
+      </c>
+      <c r="C441" t="s">
+        <v>293</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A442" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B442" t="s">
+        <v>55</v>
+      </c>
+      <c r="C442" t="s">
+        <v>294</v>
+      </c>
+      <c r="D442" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D134"/>
+  <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="299">
   <si>
     <t>lang_code</t>
   </si>
@@ -912,6 +912,18 @@
   </si>
   <si>
     <t>OTP Send Service</t>
+  </si>
+  <si>
+    <t>otp-email-content-template</t>
+  </si>
+  <si>
+    <t>otp-email-subject-template</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Content</t>
+  </si>
+  <si>
+    <t>Template for OTP Email Subject</t>
   </si>
 </sst>
 </file>
@@ -1258,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D442"/>
+  <dimension ref="A1:D448"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C438" sqref="C438"/>
+    <sheetView tabSelected="1" topLeftCell="A428" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C445" sqref="C445"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7459,6 +7471,90 @@
         <v>7</v>
       </c>
     </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A443" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B443" t="s">
+        <v>295</v>
+      </c>
+      <c r="C443" t="s">
+        <v>297</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A444" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B444" t="s">
+        <v>296</v>
+      </c>
+      <c r="C444" t="s">
+        <v>298</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A445" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B445" t="s">
+        <v>295</v>
+      </c>
+      <c r="C445" t="s">
+        <v>297</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A446" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B446" t="s">
+        <v>296</v>
+      </c>
+      <c r="C446" t="s">
+        <v>298</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A447" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B447" t="s">
+        <v>295</v>
+      </c>
+      <c r="C447" t="s">
+        <v>297</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A448" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B448" t="s">
+        <v>296</v>
+      </c>
+      <c r="C448" t="s">
+        <v>298</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:D400"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop_Branch_all\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706823D-459D-4241-9534-B609559CFF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="301">
   <si>
     <t>lang_code</t>
   </si>
@@ -924,12 +925,18 @@
   </si>
   <si>
     <t>Template for OTP Email Subject</t>
+  </si>
+  <si>
+    <t>Acknowledgement-email-cancelAppointment-subject</t>
+  </si>
+  <si>
+    <t>Template for email subject of Cancel Appointment Acknowledgement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1269,21 +1276,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D448"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A428" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C445" sqref="C445"/>
+    <sheetView tabSelected="1" topLeftCell="A440" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D451" sqref="D451"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="1"/>
+    <col min="4" max="4" width="8.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1297,7 +1304,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1325,7 +1332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1353,7 +1360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
@@ -1367,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1381,7 +1388,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
@@ -1409,7 +1416,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1437,7 +1444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
@@ -1465,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
@@ -1479,7 +1486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -1493,7 +1500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
@@ -1507,7 +1514,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="4" t="s">
         <v>4</v>
       </c>
@@ -1521,7 +1528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1535,7 +1542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>4</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
@@ -1563,7 +1570,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>4</v>
       </c>
@@ -1577,7 +1584,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>4</v>
       </c>
@@ -1591,7 +1598,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>4</v>
       </c>
@@ -1619,7 +1626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1633,7 +1640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
@@ -1647,7 +1654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
@@ -1661,7 +1668,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1675,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1696,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>4</v>
       </c>
@@ -1717,7 +1724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="4" t="s">
         <v>4</v>
       </c>
@@ -1731,7 +1738,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
@@ -1745,7 +1752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="4" t="s">
         <v>4</v>
       </c>
@@ -1759,7 +1766,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="4" t="s">
         <v>4</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="4" t="s">
         <v>4</v>
       </c>
@@ -1787,7 +1794,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="4" t="s">
         <v>4</v>
       </c>
@@ -1801,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>4</v>
       </c>
@@ -1815,7 +1822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>4</v>
       </c>
@@ -1829,7 +1836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="4" t="s">
         <v>4</v>
       </c>
@@ -1843,7 +1850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="4" t="s">
         <v>4</v>
       </c>
@@ -1871,7 +1878,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="4" t="s">
         <v>4</v>
       </c>
@@ -1885,7 +1892,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="4" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1906,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="4" t="s">
         <v>4</v>
       </c>
@@ -1913,7 +1920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
@@ -1927,7 +1934,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="4" t="s">
         <v>4</v>
       </c>
@@ -1941,7 +1948,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="4" t="s">
         <v>4</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" s="4" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1976,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" s="4" t="s">
         <v>4</v>
       </c>
@@ -1983,7 +1990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
         <v>4</v>
       </c>
@@ -1997,7 +2004,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" s="4" t="s">
         <v>4</v>
       </c>
@@ -2011,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>4</v>
       </c>
@@ -2067,7 +2074,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>4</v>
       </c>
@@ -2095,7 +2102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +2116,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>4</v>
       </c>
@@ -2123,7 +2130,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>4</v>
       </c>
@@ -2137,7 +2144,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>4</v>
       </c>
@@ -2179,7 +2186,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>4</v>
       </c>
@@ -2193,7 +2200,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>4</v>
       </c>
@@ -2207,7 +2214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>4</v>
       </c>
@@ -2221,7 +2228,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" s="4" t="s">
         <v>4</v>
       </c>
@@ -2235,7 +2242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>4</v>
       </c>
@@ -2249,7 +2256,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" s="4" t="s">
         <v>4</v>
       </c>
@@ -2263,7 +2270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" s="4" t="s">
         <v>4</v>
       </c>
@@ -2277,7 +2284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" s="4" t="s">
         <v>4</v>
       </c>
@@ -2291,7 +2298,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
         <v>4</v>
       </c>
@@ -2305,7 +2312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" s="4" t="s">
         <v>4</v>
       </c>
@@ -2319,7 +2326,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" s="4" t="s">
         <v>4</v>
       </c>
@@ -2333,7 +2340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" s="4" t="s">
         <v>4</v>
       </c>
@@ -2347,7 +2354,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
@@ -2361,7 +2368,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
@@ -2375,7 +2382,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" s="4" t="s">
         <v>4</v>
       </c>
@@ -2389,7 +2396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" s="4" t="s">
         <v>4</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="4" t="s">
         <v>4</v>
       </c>
@@ -2417,7 +2424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="4" t="s">
         <v>4</v>
       </c>
@@ -2431,7 +2438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="4" t="s">
         <v>4</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="4" t="s">
         <v>4</v>
       </c>
@@ -2459,7 +2466,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="4" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2480,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="4" t="s">
         <v>4</v>
       </c>
@@ -2487,7 +2494,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="4" t="s">
         <v>4</v>
       </c>
@@ -2501,7 +2508,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="4" t="s">
         <v>4</v>
       </c>
@@ -2515,7 +2522,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="4" t="s">
         <v>4</v>
       </c>
@@ -2529,7 +2536,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="4" t="s">
         <v>4</v>
       </c>
@@ -2543,7 +2550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="4" t="s">
         <v>4</v>
       </c>
@@ -2557,7 +2564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="4" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="4" t="s">
         <v>4</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="4" t="s">
         <v>4</v>
       </c>
@@ -2599,7 +2606,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
         <v>4</v>
       </c>
@@ -2613,7 +2620,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="4" t="s">
         <v>4</v>
       </c>
@@ -2627,7 +2634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" s="4" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2648,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>4</v>
       </c>
@@ -2655,7 +2662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" s="4" t="s">
         <v>4</v>
       </c>
@@ -2669,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" s="4" t="s">
         <v>4</v>
       </c>
@@ -2683,7 +2690,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>4</v>
       </c>
@@ -2697,7 +2704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" s="4" t="s">
         <v>4</v>
       </c>
@@ -2711,7 +2718,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" s="4" t="s">
         <v>4</v>
       </c>
@@ -2725,7 +2732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" s="4" t="s">
         <v>4</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" s="4" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" s="4" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2774,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" s="4" t="s">
         <v>4</v>
       </c>
@@ -2781,7 +2788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" s="4" t="s">
         <v>4</v>
       </c>
@@ -2795,7 +2802,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="4" t="s">
         <v>4</v>
       </c>
@@ -2809,7 +2816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" s="4" t="s">
         <v>4</v>
       </c>
@@ -2823,7 +2830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" s="4" t="s">
         <v>4</v>
       </c>
@@ -2837,7 +2844,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" s="4" t="s">
         <v>4</v>
       </c>
@@ -2851,7 +2858,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" s="4" t="s">
         <v>4</v>
       </c>
@@ -2865,7 +2872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2886,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" s="4" t="s">
         <v>4</v>
       </c>
@@ -2893,7 +2900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="4" t="s">
         <v>4</v>
       </c>
@@ -2907,7 +2914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
         <v>4</v>
       </c>
@@ -2921,7 +2928,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" s="4" t="s">
         <v>4</v>
       </c>
@@ -2935,7 +2942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" s="4" t="s">
         <v>4</v>
       </c>
@@ -2949,7 +2956,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="4" t="s">
         <v>4</v>
       </c>
@@ -2963,7 +2970,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" s="4" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" s="4" t="s">
         <v>4</v>
       </c>
@@ -2991,7 +2998,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" s="4" t="s">
         <v>4</v>
       </c>
@@ -3005,7 +3012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" s="4" t="s">
         <v>4</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" s="4" t="s">
         <v>4</v>
       </c>
@@ -3033,7 +3040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>4</v>
       </c>
@@ -3047,7 +3054,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" s="4" t="s">
         <v>4</v>
       </c>
@@ -3061,7 +3068,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" s="4" t="s">
         <v>4</v>
       </c>
@@ -3075,7 +3082,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" s="4" t="s">
         <v>4</v>
       </c>
@@ -3089,7 +3096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" s="4" t="s">
         <v>4</v>
       </c>
@@ -3103,7 +3110,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" s="4" t="s">
         <v>4</v>
       </c>
@@ -3117,7 +3124,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="4" t="s">
         <v>4</v>
       </c>
@@ -3131,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" s="4" t="s">
         <v>4</v>
       </c>
@@ -3145,7 +3152,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="4" t="s">
         <v>4</v>
       </c>
@@ -3159,7 +3166,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
         <v>4</v>
       </c>
@@ -3173,7 +3180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
         <v>4</v>
       </c>
@@ -3187,7 +3194,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
         <v>4</v>
       </c>
@@ -3201,7 +3208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
         <v>4</v>
       </c>
@@ -3215,7 +3222,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
         <v>4</v>
       </c>
@@ -3229,7 +3236,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
         <v>4</v>
       </c>
@@ -3243,7 +3250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
         <v>4</v>
       </c>
@@ -3257,7 +3264,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
         <v>4</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
         <v>4</v>
       </c>
@@ -3299,7 +3306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" s="4" t="s">
         <v>4</v>
       </c>
@@ -3313,7 +3320,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3334,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" s="4" t="s">
         <v>4</v>
       </c>
@@ -3341,7 +3348,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
         <v>4</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
         <v>254</v>
       </c>
@@ -3369,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" s="4" t="s">
         <v>254</v>
       </c>
@@ -3383,7 +3390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" s="4" t="s">
         <v>254</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" s="4" t="s">
         <v>254</v>
       </c>
@@ -3411,7 +3418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" s="4" t="s">
         <v>254</v>
       </c>
@@ -3425,7 +3432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
         <v>254</v>
       </c>
@@ -3439,7 +3446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" s="4" t="s">
         <v>254</v>
       </c>
@@ -3453,7 +3460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" s="4" t="s">
         <v>254</v>
       </c>
@@ -3467,7 +3474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" s="4" t="s">
         <v>254</v>
       </c>
@@ -3481,7 +3488,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" s="4" t="s">
         <v>254</v>
       </c>
@@ -3495,7 +3502,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
         <v>254</v>
       </c>
@@ -3509,7 +3516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" s="4" t="s">
         <v>254</v>
       </c>
@@ -3523,7 +3530,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
         <v>254</v>
       </c>
@@ -3537,7 +3544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" s="4" t="s">
         <v>254</v>
       </c>
@@ -3551,7 +3558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
         <v>254</v>
       </c>
@@ -3565,7 +3572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" s="4" t="s">
         <v>254</v>
       </c>
@@ -3579,7 +3586,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
         <v>254</v>
       </c>
@@ -3593,7 +3600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" s="4" t="s">
         <v>254</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" s="4" t="s">
         <v>254</v>
       </c>
@@ -3621,7 +3628,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A168" s="4" t="s">
         <v>254</v>
       </c>
@@ -3635,7 +3642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
         <v>254</v>
       </c>
@@ -3649,7 +3656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A170" s="4" t="s">
         <v>254</v>
       </c>
@@ -3663,7 +3670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
         <v>254</v>
       </c>
@@ -3677,7 +3684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A172" s="4" t="s">
         <v>254</v>
       </c>
@@ -3691,7 +3698,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A173" s="4" t="s">
         <v>254</v>
       </c>
@@ -3705,7 +3712,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
         <v>254</v>
       </c>
@@ -3719,7 +3726,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
         <v>254</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
         <v>254</v>
       </c>
@@ -3747,7 +3754,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A177" s="4" t="s">
         <v>254</v>
       </c>
@@ -3761,7 +3768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
         <v>254</v>
       </c>
@@ -3775,7 +3782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
         <v>254</v>
       </c>
@@ -3789,7 +3796,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
         <v>254</v>
       </c>
@@ -3803,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A181" s="4" t="s">
         <v>254</v>
       </c>
@@ -3817,7 +3824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A182" s="4" t="s">
         <v>254</v>
       </c>
@@ -3831,7 +3838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
         <v>254</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A184" s="4" t="s">
         <v>254</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A185" s="4" t="s">
         <v>254</v>
       </c>
@@ -3873,7 +3880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
         <v>254</v>
       </c>
@@ -3887,7 +3894,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A187" s="4" t="s">
         <v>254</v>
       </c>
@@ -3901,7 +3908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
         <v>254</v>
       </c>
@@ -3915,7 +3922,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
         <v>254</v>
       </c>
@@ -3929,7 +3936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A190" s="4" t="s">
         <v>254</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A191" s="4" t="s">
         <v>254</v>
       </c>
@@ -3957,7 +3964,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
         <v>254</v>
       </c>
@@ -3971,7 +3978,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A193" s="4" t="s">
         <v>254</v>
       </c>
@@ -3985,7 +3992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
         <v>254</v>
       </c>
@@ -3999,7 +4006,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A195" s="4" t="s">
         <v>254</v>
       </c>
@@ -4013,7 +4020,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A196" s="4" t="s">
         <v>254</v>
       </c>
@@ -4027,7 +4034,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A197" s="4" t="s">
         <v>254</v>
       </c>
@@ -4041,7 +4048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A198" s="4" t="s">
         <v>254</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A199" s="4" t="s">
         <v>254</v>
       </c>
@@ -4069,7 +4076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A200" s="4" t="s">
         <v>254</v>
       </c>
@@ -4083,7 +4090,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A201" s="4" t="s">
         <v>254</v>
       </c>
@@ -4097,7 +4104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A202" s="4" t="s">
         <v>254</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A203" s="4" t="s">
         <v>254</v>
       </c>
@@ -4125,7 +4132,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A204" s="4" t="s">
         <v>254</v>
       </c>
@@ -4139,7 +4146,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
         <v>254</v>
       </c>
@@ -4153,7 +4160,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A206" s="4" t="s">
         <v>254</v>
       </c>
@@ -4167,7 +4174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
         <v>254</v>
       </c>
@@ -4181,7 +4188,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A208" s="4" t="s">
         <v>254</v>
       </c>
@@ -4195,7 +4202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A209" s="4" t="s">
         <v>254</v>
       </c>
@@ -4209,7 +4216,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A210" s="4" t="s">
         <v>254</v>
       </c>
@@ -4223,7 +4230,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A211" s="4" t="s">
         <v>254</v>
       </c>
@@ -4237,7 +4244,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A212" s="4" t="s">
         <v>254</v>
       </c>
@@ -4251,7 +4258,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A213" s="4" t="s">
         <v>254</v>
       </c>
@@ -4265,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A214" s="4" t="s">
         <v>254</v>
       </c>
@@ -4279,7 +4286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
         <v>254</v>
       </c>
@@ -4293,7 +4300,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A216" s="4" t="s">
         <v>254</v>
       </c>
@@ -4307,7 +4314,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
         <v>254</v>
       </c>
@@ -4321,7 +4328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
         <v>254</v>
       </c>
@@ -4335,7 +4342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
         <v>254</v>
       </c>
@@ -4349,7 +4356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
         <v>254</v>
       </c>
@@ -4363,7 +4370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A221" s="4" t="s">
         <v>254</v>
       </c>
@@ -4377,7 +4384,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A222" s="4" t="s">
         <v>254</v>
       </c>
@@ -4391,7 +4398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
         <v>254</v>
       </c>
@@ -4405,7 +4412,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A224" s="4" t="s">
         <v>254</v>
       </c>
@@ -4419,7 +4426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A225" s="4" t="s">
         <v>254</v>
       </c>
@@ -4433,7 +4440,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A226" s="4" t="s">
         <v>254</v>
       </c>
@@ -4447,7 +4454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A227" s="4" t="s">
         <v>254</v>
       </c>
@@ -4461,7 +4468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
         <v>254</v>
       </c>
@@ -4475,7 +4482,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
         <v>254</v>
       </c>
@@ -4489,7 +4496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A230" s="4" t="s">
         <v>254</v>
       </c>
@@ -4503,7 +4510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
         <v>254</v>
       </c>
@@ -4517,7 +4524,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A232" s="4" t="s">
         <v>254</v>
       </c>
@@ -4531,7 +4538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
         <v>254</v>
       </c>
@@ -4545,7 +4552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A234" s="4" t="s">
         <v>254</v>
       </c>
@@ -4559,7 +4566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A235" s="4" t="s">
         <v>254</v>
       </c>
@@ -4573,7 +4580,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A236" s="4" t="s">
         <v>254</v>
       </c>
@@ -4587,7 +4594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
         <v>254</v>
       </c>
@@ -4601,7 +4608,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A238" s="4" t="s">
         <v>254</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A239" s="4" t="s">
         <v>254</v>
       </c>
@@ -4629,7 +4636,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A240" s="4" t="s">
         <v>254</v>
       </c>
@@ -4643,7 +4650,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A241" s="4" t="s">
         <v>254</v>
       </c>
@@ -4657,7 +4664,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A242" s="4" t="s">
         <v>254</v>
       </c>
@@ -4671,7 +4678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A243" s="4" t="s">
         <v>254</v>
       </c>
@@ -4685,7 +4692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A244" s="4" t="s">
         <v>254</v>
       </c>
@@ -4699,7 +4706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
         <v>254</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A246" s="4" t="s">
         <v>254</v>
       </c>
@@ -4727,7 +4734,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A247" s="4" t="s">
         <v>254</v>
       </c>
@@ -4741,7 +4748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
         <v>254</v>
       </c>
@@ -4755,7 +4762,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A249" s="4" t="s">
         <v>254</v>
       </c>
@@ -4769,7 +4776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A250" s="4" t="s">
         <v>254</v>
       </c>
@@ -4783,7 +4790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A251" s="4" t="s">
         <v>254</v>
       </c>
@@ -4797,7 +4804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
         <v>254</v>
       </c>
@@ -4811,7 +4818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A253" s="4" t="s">
         <v>254</v>
       </c>
@@ -4825,7 +4832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A254" s="4" t="s">
         <v>254</v>
       </c>
@@ -4839,7 +4846,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A255" s="4" t="s">
         <v>254</v>
       </c>
@@ -4853,7 +4860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A256" s="4" t="s">
         <v>254</v>
       </c>
@@ -4867,7 +4874,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A257" s="4" t="s">
         <v>254</v>
       </c>
@@ -4881,7 +4888,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A258" s="4" t="s">
         <v>254</v>
       </c>
@@ -4895,7 +4902,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A259" s="4" t="s">
         <v>254</v>
       </c>
@@ -4909,7 +4916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A260" s="4" t="s">
         <v>254</v>
       </c>
@@ -4923,7 +4930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A261" s="4" t="s">
         <v>254</v>
       </c>
@@ -4937,7 +4944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A262" s="4" t="s">
         <v>254</v>
       </c>
@@ -4951,7 +4958,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A263" s="4" t="s">
         <v>254</v>
       </c>
@@ -4965,7 +4972,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
         <v>254</v>
       </c>
@@ -4979,7 +4986,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
         <v>254</v>
       </c>
@@ -4993,7 +5000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
         <v>254</v>
       </c>
@@ -5007,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
         <v>254</v>
       </c>
@@ -5021,7 +5028,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A268" s="4" t="s">
         <v>254</v>
       </c>
@@ -5035,7 +5042,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
         <v>254</v>
       </c>
@@ -5049,7 +5056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>254</v>
       </c>
@@ -5063,7 +5070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
         <v>254</v>
       </c>
@@ -5077,7 +5084,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A272" s="4" t="s">
         <v>254</v>
       </c>
@@ -5091,7 +5098,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
         <v>254</v>
       </c>
@@ -5105,7 +5112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
         <v>254</v>
       </c>
@@ -5119,7 +5126,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
         <v>254</v>
       </c>
@@ -5133,7 +5140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
         <v>254</v>
       </c>
@@ -5147,7 +5154,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
         <v>254</v>
       </c>
@@ -5161,7 +5168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A278" s="4" t="s">
         <v>254</v>
       </c>
@@ -5175,7 +5182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
         <v>254</v>
       </c>
@@ -5189,7 +5196,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A280" s="4" t="s">
         <v>254</v>
       </c>
@@ -5203,7 +5210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
         <v>254</v>
       </c>
@@ -5217,7 +5224,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
         <v>254</v>
       </c>
@@ -5231,7 +5238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
         <v>254</v>
       </c>
@@ -5245,7 +5252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
         <v>254</v>
       </c>
@@ -5259,7 +5266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A285" s="4" t="s">
         <v>254</v>
       </c>
@@ -5273,7 +5280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A286" s="4" t="s">
         <v>254</v>
       </c>
@@ -5287,7 +5294,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
         <v>254</v>
       </c>
@@ -5301,7 +5308,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A288" s="4" t="s">
         <v>254</v>
       </c>
@@ -5315,7 +5322,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
         <v>254</v>
       </c>
@@ -5329,7 +5336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
         <v>254</v>
       </c>
@@ -5343,7 +5350,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
         <v>254</v>
       </c>
@@ -5357,7 +5364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A292" s="4" t="s">
         <v>254</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A293" s="4" t="s">
         <v>254</v>
       </c>
@@ -5385,7 +5392,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A294" s="4" t="s">
         <v>254</v>
       </c>
@@ -5399,7 +5406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A295" s="4" t="s">
         <v>254</v>
       </c>
@@ -5413,7 +5420,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A296" s="4" t="s">
         <v>255</v>
       </c>
@@ -5427,7 +5434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
         <v>255</v>
       </c>
@@ -5441,7 +5448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A298" s="4" t="s">
         <v>255</v>
       </c>
@@ -5455,7 +5462,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A299" s="4" t="s">
         <v>255</v>
       </c>
@@ -5469,7 +5476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A300" s="4" t="s">
         <v>255</v>
       </c>
@@ -5483,7 +5490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
         <v>255</v>
       </c>
@@ -5497,7 +5504,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A302" s="4" t="s">
         <v>255</v>
       </c>
@@ -5511,7 +5518,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
         <v>255</v>
       </c>
@@ -5525,7 +5532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A304" s="4" t="s">
         <v>255</v>
       </c>
@@ -5539,7 +5546,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
         <v>255</v>
       </c>
@@ -5553,7 +5560,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A306" s="4" t="s">
         <v>255</v>
       </c>
@@ -5567,7 +5574,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A307" s="4" t="s">
         <v>255</v>
       </c>
@@ -5581,7 +5588,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
         <v>255</v>
       </c>
@@ -5595,7 +5602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A309" s="4" t="s">
         <v>255</v>
       </c>
@@ -5609,7 +5616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A310" s="4" t="s">
         <v>255</v>
       </c>
@@ -5623,7 +5630,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
         <v>255</v>
       </c>
@@ -5637,7 +5644,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A312" s="4" t="s">
         <v>255</v>
       </c>
@@ -5651,7 +5658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A313" s="4" t="s">
         <v>255</v>
       </c>
@@ -5665,7 +5672,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A314" s="4" t="s">
         <v>255</v>
       </c>
@@ -5679,7 +5686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A315" s="4" t="s">
         <v>255</v>
       </c>
@@ -5693,7 +5700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A316" s="4" t="s">
         <v>255</v>
       </c>
@@ -5707,7 +5714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
         <v>255</v>
       </c>
@@ -5721,7 +5728,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A318" s="4" t="s">
         <v>255</v>
       </c>
@@ -5735,7 +5742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A319" s="4" t="s">
         <v>255</v>
       </c>
@@ -5749,7 +5756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
         <v>255</v>
       </c>
@@ -5763,7 +5770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A321" s="4" t="s">
         <v>255</v>
       </c>
@@ -5777,7 +5784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
         <v>255</v>
       </c>
@@ -5791,7 +5798,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
         <v>255</v>
       </c>
@@ -5805,7 +5812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A324" s="4" t="s">
         <v>255</v>
       </c>
@@ -5819,7 +5826,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A325" s="4" t="s">
         <v>255</v>
       </c>
@@ -5833,7 +5840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A326" s="4" t="s">
         <v>255</v>
       </c>
@@ -5847,7 +5854,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A327" s="4" t="s">
         <v>255</v>
       </c>
@@ -5861,7 +5868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A328" s="4" t="s">
         <v>255</v>
       </c>
@@ -5875,7 +5882,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
         <v>255</v>
       </c>
@@ -5889,7 +5896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A330" s="4" t="s">
         <v>255</v>
       </c>
@@ -5903,7 +5910,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
         <v>255</v>
       </c>
@@ -5917,7 +5924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A332" s="4" t="s">
         <v>255</v>
       </c>
@@ -5931,7 +5938,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A333" s="4" t="s">
         <v>255</v>
       </c>
@@ -5945,7 +5952,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A334" s="4" t="s">
         <v>255</v>
       </c>
@@ -5959,7 +5966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
         <v>255</v>
       </c>
@@ -5973,7 +5980,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
         <v>255</v>
       </c>
@@ -5987,7 +5994,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>255</v>
       </c>
@@ -6001,7 +6008,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>255</v>
       </c>
@@ -6015,7 +6022,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
         <v>255</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A340" s="4" t="s">
         <v>255</v>
       </c>
@@ -6043,7 +6050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
         <v>255</v>
       </c>
@@ -6057,7 +6064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A342" s="4" t="s">
         <v>255</v>
       </c>
@@ -6071,7 +6078,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
         <v>255</v>
       </c>
@@ -6085,7 +6092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
         <v>255</v>
       </c>
@@ -6099,7 +6106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A345" s="4" t="s">
         <v>255</v>
       </c>
@@ -6113,7 +6120,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
         <v>255</v>
       </c>
@@ -6127,7 +6134,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A347" s="4" t="s">
         <v>255</v>
       </c>
@@ -6141,7 +6148,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
         <v>255</v>
       </c>
@@ -6155,7 +6162,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A349" s="4" t="s">
         <v>255</v>
       </c>
@@ -6169,7 +6176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A350" s="4" t="s">
         <v>255</v>
       </c>
@@ -6183,7 +6190,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A351" s="4" t="s">
         <v>255</v>
       </c>
@@ -6197,7 +6204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A352" s="4" t="s">
         <v>255</v>
       </c>
@@ -6211,7 +6218,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A353" s="4" t="s">
         <v>255</v>
       </c>
@@ -6225,7 +6232,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A354" s="4" t="s">
         <v>255</v>
       </c>
@@ -6239,7 +6246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A355" s="4" t="s">
         <v>255</v>
       </c>
@@ -6253,7 +6260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A356" s="4" t="s">
         <v>255</v>
       </c>
@@ -6267,7 +6274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
         <v>255</v>
       </c>
@@ -6281,7 +6288,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A358" s="4" t="s">
         <v>255</v>
       </c>
@@ -6295,7 +6302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
         <v>255</v>
       </c>
@@ -6309,7 +6316,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A360" s="4" t="s">
         <v>255</v>
       </c>
@@ -6323,7 +6330,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A361" s="4" t="s">
         <v>255</v>
       </c>
@@ -6337,7 +6344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
         <v>255</v>
       </c>
@@ -6351,7 +6358,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
         <v>255</v>
       </c>
@@ -6365,7 +6372,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A364" s="4" t="s">
         <v>255</v>
       </c>
@@ -6379,7 +6386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A365" s="4" t="s">
         <v>255</v>
       </c>
@@ -6393,7 +6400,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A366" s="4" t="s">
         <v>255</v>
       </c>
@@ -6407,7 +6414,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A367" s="4" t="s">
         <v>255</v>
       </c>
@@ -6421,7 +6428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
         <v>255</v>
       </c>
@@ -6435,7 +6442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A369" s="4" t="s">
         <v>255</v>
       </c>
@@ -6449,7 +6456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A370" s="4" t="s">
         <v>255</v>
       </c>
@@ -6463,7 +6470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A371" s="4" t="s">
         <v>255</v>
       </c>
@@ -6477,7 +6484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A372" s="4" t="s">
         <v>255</v>
       </c>
@@ -6491,7 +6498,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A373" s="4" t="s">
         <v>255</v>
       </c>
@@ -6505,7 +6512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
         <v>255</v>
       </c>
@@ -6519,7 +6526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A375" s="4" t="s">
         <v>255</v>
       </c>
@@ -6533,7 +6540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A376" s="4" t="s">
         <v>255</v>
       </c>
@@ -6547,7 +6554,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A377" s="4" t="s">
         <v>255</v>
       </c>
@@ -6561,7 +6568,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
         <v>255</v>
       </c>
@@ -6575,7 +6582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A379" s="4" t="s">
         <v>255</v>
       </c>
@@ -6589,7 +6596,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A380" s="4" t="s">
         <v>255</v>
       </c>
@@ -6603,7 +6610,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A381" s="4" t="s">
         <v>255</v>
       </c>
@@ -6617,7 +6624,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A382" s="4" t="s">
         <v>255</v>
       </c>
@@ -6631,7 +6638,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A383" s="4" t="s">
         <v>255</v>
       </c>
@@ -6645,7 +6652,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A384" s="4" t="s">
         <v>255</v>
       </c>
@@ -6659,7 +6666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A385" s="4" t="s">
         <v>255</v>
       </c>
@@ -6673,7 +6680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A386" s="4" t="s">
         <v>255</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A387" s="4" t="s">
         <v>255</v>
       </c>
@@ -6701,7 +6708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A388" s="4" t="s">
         <v>255</v>
       </c>
@@ -6715,7 +6722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A389" s="4" t="s">
         <v>255</v>
       </c>
@@ -6729,7 +6736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A390" s="4" t="s">
         <v>255</v>
       </c>
@@ -6743,7 +6750,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A391" s="4" t="s">
         <v>255</v>
       </c>
@@ -6757,7 +6764,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A392" s="4" t="s">
         <v>255</v>
       </c>
@@ -6771,7 +6778,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A393" s="4" t="s">
         <v>255</v>
       </c>
@@ -6785,7 +6792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A394" s="4" t="s">
         <v>255</v>
       </c>
@@ -6799,7 +6806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A395" s="4" t="s">
         <v>255</v>
       </c>
@@ -6813,7 +6820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A396" s="4" t="s">
         <v>255</v>
       </c>
@@ -6827,7 +6834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A397" s="4" t="s">
         <v>255</v>
       </c>
@@ -6841,7 +6848,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A398" s="4" t="s">
         <v>255</v>
       </c>
@@ -6855,7 +6862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A399" s="4" t="s">
         <v>255</v>
       </c>
@@ -6869,7 +6876,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A400" s="4" t="s">
         <v>255</v>
       </c>
@@ -6883,7 +6890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A401" s="4" t="s">
         <v>255</v>
       </c>
@@ -6897,7 +6904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A402" s="4" t="s">
         <v>255</v>
       </c>
@@ -6911,7 +6918,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A403" s="4" t="s">
         <v>255</v>
       </c>
@@ -6925,7 +6932,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A404" s="4" t="s">
         <v>255</v>
       </c>
@@ -6939,7 +6946,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A405" s="4" t="s">
         <v>255</v>
       </c>
@@ -6953,7 +6960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A406" s="4" t="s">
         <v>255</v>
       </c>
@@ -6967,7 +6974,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A407" s="4" t="s">
         <v>255</v>
       </c>
@@ -6981,7 +6988,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A408" s="4" t="s">
         <v>255</v>
       </c>
@@ -6995,7 +7002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A409" s="4" t="s">
         <v>255</v>
       </c>
@@ -7009,7 +7016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A410" s="4" t="s">
         <v>255</v>
       </c>
@@ -7023,7 +7030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A411" s="4" t="s">
         <v>255</v>
       </c>
@@ -7037,7 +7044,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A412" s="4" t="s">
         <v>255</v>
       </c>
@@ -7051,7 +7058,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A413" s="4" t="s">
         <v>255</v>
       </c>
@@ -7065,7 +7072,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A414" s="4" t="s">
         <v>255</v>
       </c>
@@ -7079,7 +7086,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A415" s="4" t="s">
         <v>255</v>
       </c>
@@ -7093,7 +7100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A416" s="4" t="s">
         <v>255</v>
       </c>
@@ -7107,7 +7114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A417" s="4" t="s">
         <v>255</v>
       </c>
@@ -7121,7 +7128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A418" s="4" t="s">
         <v>255</v>
       </c>
@@ -7135,7 +7142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A419" s="4" t="s">
         <v>255</v>
       </c>
@@ -7149,7 +7156,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A420" s="4" t="s">
         <v>255</v>
       </c>
@@ -7163,7 +7170,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A421" s="4" t="s">
         <v>255</v>
       </c>
@@ -7177,7 +7184,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A422" s="4" t="s">
         <v>255</v>
       </c>
@@ -7191,7 +7198,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A423" s="4" t="s">
         <v>255</v>
       </c>
@@ -7205,7 +7212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A424" s="4" t="s">
         <v>255</v>
       </c>
@@ -7219,7 +7226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A425" s="4" t="s">
         <v>255</v>
       </c>
@@ -7233,7 +7240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A426" s="4" t="s">
         <v>255</v>
       </c>
@@ -7247,7 +7254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A427" s="4" t="s">
         <v>255</v>
       </c>
@@ -7261,7 +7268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A428" s="4" t="s">
         <v>255</v>
       </c>
@@ -7275,7 +7282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A429" s="4" t="s">
         <v>255</v>
       </c>
@@ -7289,7 +7296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A430" s="4" t="s">
         <v>255</v>
       </c>
@@ -7303,7 +7310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A431" s="4" t="s">
         <v>255</v>
       </c>
@@ -7317,7 +7324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A432" s="4" t="s">
         <v>255</v>
       </c>
@@ -7331,7 +7338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A433" s="4" t="s">
         <v>255</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A434" s="4" t="s">
         <v>255</v>
       </c>
@@ -7359,7 +7366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A435" s="4" t="s">
         <v>255</v>
       </c>
@@ -7373,7 +7380,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A436" s="4" t="s">
         <v>255</v>
       </c>
@@ -7387,7 +7394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A437" s="4" t="s">
         <v>255</v>
       </c>
@@ -7401,7 +7408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A438" s="4" t="s">
         <v>255</v>
       </c>
@@ -7415,7 +7422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A439" s="4" t="s">
         <v>255</v>
       </c>
@@ -7429,7 +7436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A440" s="4" t="s">
         <v>255</v>
       </c>
@@ -7443,7 +7450,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A441" s="4" t="s">
         <v>255</v>
       </c>
@@ -7457,7 +7464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442" s="4" t="s">
         <v>255</v>
       </c>
@@ -7471,7 +7478,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A443" s="4" t="s">
         <v>4</v>
       </c>
@@ -7485,7 +7492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A444" s="4" t="s">
         <v>4</v>
       </c>
@@ -7499,7 +7506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A445" s="4" t="s">
         <v>254</v>
       </c>
@@ -7513,7 +7520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A446" s="4" t="s">
         <v>254</v>
       </c>
@@ -7527,7 +7534,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A447" s="4" t="s">
         <v>255</v>
       </c>
@@ -7541,7 +7548,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A448" s="4" t="s">
         <v>255</v>
       </c>
@@ -7555,8 +7562,50 @@
         <v>7</v>
       </c>
     </row>
+    <row r="449" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A449" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B449" t="s">
+        <v>299</v>
+      </c>
+      <c r="C449" t="s">
+        <v>300</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A450" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B450" t="s">
+        <v>299</v>
+      </c>
+      <c r="C450" t="s">
+        <v>300</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A451" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="B451" t="s">
+        <v>299</v>
+      </c>
+      <c r="C451" t="s">
+        <v>300</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:D400"/>
+  <autoFilter ref="A1:D400" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1072510\Documents\GitHub\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A706823D-459D-4241-9534-B609559CFF48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B61D33D-4540-41E5-8472-E3E116E042DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -927,10 +927,10 @@
     <t>Template for OTP Email Subject</t>
   </si>
   <si>
-    <t>Acknowledgement-email-cancelAppointment-subject</t>
-  </si>
-  <si>
-    <t>Template for email subject of Cancel Appointment Acknowledgement</t>
+    <t>cancel-appointment-email-subject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Template for email subject of cancel Appointment </t>
   </si>
 </sst>
 </file>
@@ -1279,8 +1279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A440" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D451" sqref="D451"/>
+    <sheetView tabSelected="1" topLeftCell="A439" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E451" sqref="E451"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5EB0D0-87C3-4CE9-93D3-92F00E415A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F43346-CCEB-4C34-BCBD-E7555BAEFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9192" uniqueCount="1399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9240" uniqueCount="1400">
   <si>
     <t>lang_code</t>
   </si>
@@ -5719,6 +5719,9 @@
   </si>
   <si>
     <t>Regproc success summary to self update demographic data</t>
+  </si>
+  <si>
+    <t>spa</t>
   </si>
 </sst>
 </file>
@@ -6186,10 +6189,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2298"/>
+  <dimension ref="A1:D2310"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2294" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2310" sqref="E2310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -38360,15 +38363,183 @@
     </row>
     <row r="2298" spans="1:4">
       <c r="A2298" t="s">
-        <v>4</v>
+        <v>1399</v>
       </c>
       <c r="B2298" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C2298" s="8" t="s">
         <v>1398</v>
       </c>
       <c r="D2298" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:4">
+      <c r="A2299" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2299" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2299" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2299" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:4">
+      <c r="A2300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2300" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2300" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2300" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:4">
+      <c r="A2301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2301" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2301" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2301" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:4">
+      <c r="A2302" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2302" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2302" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2302" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:4">
+      <c r="A2303" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2303" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="C2303" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2303" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:4">
+      <c r="A2304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2304" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2304" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2304" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:4">
+      <c r="A2305" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B2305" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2305" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2305" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:4">
+      <c r="A2306" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2306" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2306" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2306" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:4">
+      <c r="A2307" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2307" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2307" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2307" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:4">
+      <c r="A2308" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2308" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2308" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2308" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:4">
+      <c r="A2309" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2309" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2309" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2309" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:4">
+      <c r="A2310" t="s">
+        <v>294</v>
+      </c>
+      <c r="B2310" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C2310" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D2310" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/mosip_master/xlsx/template_type.xlsx
+++ b/mosip_master/xlsx/template_type.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kames\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F43346-CCEB-4C34-BCBD-E7555BAEFE97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1C49BB-0AA5-476F-9EC4-EAE8901CDB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9240" uniqueCount="1400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9232" uniqueCount="1399">
   <si>
     <t>lang_code</t>
   </si>
@@ -5719,9 +5719,6 @@
   </si>
   <si>
     <t>Regproc success summary to self update demographic data</t>
-  </si>
-  <si>
-    <t>spa</t>
   </si>
 </sst>
 </file>
@@ -6189,10 +6186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2310"/>
+  <dimension ref="A1:D2308"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2294" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2310" sqref="E2310"/>
+      <selection activeCell="A2304" sqref="A2304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5"/>
@@ -38363,7 +38360,7 @@
     </row>
     <row r="2298" spans="1:4">
       <c r="A2298" t="s">
-        <v>1399</v>
+        <v>300</v>
       </c>
       <c r="B2298" s="3" t="s">
         <v>664</v>
@@ -38377,7 +38374,7 @@
     </row>
     <row r="2299" spans="1:4">
       <c r="A2299" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B2299" s="3" t="s">
         <v>664</v>
@@ -38391,7 +38388,7 @@
     </row>
     <row r="2300" spans="1:4">
       <c r="A2300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B2300" s="3" t="s">
         <v>664</v>
@@ -38405,7 +38402,7 @@
     </row>
     <row r="2301" spans="1:4">
       <c r="A2301" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B2301" s="3" t="s">
         <v>664</v>
@@ -38419,7 +38416,7 @@
     </row>
     <row r="2302" spans="1:4">
       <c r="A2302" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2302" s="3" t="s">
         <v>664</v>
@@ -38433,10 +38430,10 @@
     </row>
     <row r="2303" spans="1:4">
       <c r="A2303" t="s">
-        <v>294</v>
+        <v>4</v>
       </c>
       <c r="B2303" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C2303" s="8" t="s">
         <v>1398</v>
@@ -38447,7 +38444,7 @@
     </row>
     <row r="2304" spans="1:4">
       <c r="A2304" t="s">
-        <v>4</v>
+        <v>300</v>
       </c>
       <c r="B2304" s="3" t="s">
         <v>665</v>
@@ -38461,7 +38458,7 @@
     </row>
     <row r="2305" spans="1:4">
       <c r="A2305" t="s">
-        <v>1399</v>
+        <v>302</v>
       </c>
       <c r="B2305" s="3" t="s">
         <v>665</v>
@@ -38475,7 +38472,7 @@
     </row>
     <row r="2306" spans="1:4">
       <c r="A2306" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B2306" s="3" t="s">
         <v>665</v>
@@ -38489,7 +38486,7 @@
     </row>
     <row r="2307" spans="1:4">
       <c r="A2307" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B2307" s="3" t="s">
         <v>665</v>
@@ -38503,7 +38500,7 @@
     </row>
     <row r="2308" spans="1:4">
       <c r="A2308" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B2308" s="3" t="s">
         <v>665</v>
@@ -38512,34 +38509,6 @@
         <v>1398</v>
       </c>
       <c r="D2308" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2309" spans="1:4">
-      <c r="A2309" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2309" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2309" s="8" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D2309" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2310" spans="1:4">
-      <c r="A2310" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2310" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2310" s="8" t="s">
-        <v>1398</v>
-      </c>
-      <c r="D2310" s="1" t="s">
         <v>7</v>
       </c>
     </row>
